--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,26 @@
           <t>Prophet Forecast</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,7 +484,19 @@
         <v>45613</v>
       </c>
       <c r="C2" t="n">
-        <v>574</v>
+        <v>578</v>
+      </c>
+      <c r="D2" t="n">
+        <v>913</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1208</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +509,19 @@
         <v>45620</v>
       </c>
       <c r="C3" t="n">
-        <v>623</v>
+        <v>629</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1334</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1481</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1703</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +534,19 @@
         <v>45627</v>
       </c>
       <c r="C4" t="n">
-        <v>701</v>
+        <v>677</v>
+      </c>
+      <c r="D4" t="n">
+        <v>969</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1117</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1242</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1431</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +559,19 @@
         <v>45634</v>
       </c>
       <c r="C5" t="n">
-        <v>779</v>
+        <v>725</v>
+      </c>
+      <c r="D5" t="n">
+        <v>808</v>
+      </c>
+      <c r="E5" t="n">
+        <v>914</v>
+      </c>
+      <c r="F5" t="n">
+        <v>999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1124</v>
       </c>
     </row>
     <row r="6">
@@ -516,7 +584,19 @@
         <v>45641</v>
       </c>
       <c r="C6" t="n">
-        <v>807</v>
+        <v>779</v>
+      </c>
+      <c r="D6" t="n">
+        <v>819</v>
+      </c>
+      <c r="E6" t="n">
+        <v>933</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1163</v>
       </c>
     </row>
     <row r="7">
@@ -529,7 +609,19 @@
         <v>45648</v>
       </c>
       <c r="C7" t="n">
-        <v>760</v>
+        <v>734</v>
+      </c>
+      <c r="D7" t="n">
+        <v>668</v>
+      </c>
+      <c r="E7" t="n">
+        <v>761</v>
+      </c>
+      <c r="F7" t="n">
+        <v>836</v>
+      </c>
+      <c r="G7" t="n">
+        <v>949</v>
       </c>
     </row>
     <row r="8">
@@ -542,7 +634,19 @@
         <v>45655</v>
       </c>
       <c r="C8" t="n">
-        <v>661</v>
+        <v>658</v>
+      </c>
+      <c r="D8" t="n">
+        <v>622</v>
+      </c>
+      <c r="E8" t="n">
+        <v>703</v>
+      </c>
+      <c r="F8" t="n">
+        <v>767</v>
+      </c>
+      <c r="G8" t="n">
+        <v>863</v>
       </c>
     </row>
     <row r="9">
@@ -555,7 +659,19 @@
         <v>45662</v>
       </c>
       <c r="C9" t="n">
-        <v>559</v>
+        <v>571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>645</v>
+      </c>
+      <c r="E9" t="n">
+        <v>729</v>
+      </c>
+      <c r="F9" t="n">
+        <v>796</v>
+      </c>
+      <c r="G9" t="n">
+        <v>895</v>
       </c>
     </row>
     <row r="10">
@@ -568,7 +684,19 @@
         <v>45669</v>
       </c>
       <c r="C10" t="n">
-        <v>486</v>
+        <v>541</v>
+      </c>
+      <c r="D10" t="n">
+        <v>601</v>
+      </c>
+      <c r="E10" t="n">
+        <v>685</v>
+      </c>
+      <c r="F10" t="n">
+        <v>753</v>
+      </c>
+      <c r="G10" t="n">
+        <v>855</v>
       </c>
     </row>
     <row r="11">
@@ -581,7 +709,19 @@
         <v>45676</v>
       </c>
       <c r="C11" t="n">
-        <v>443</v>
+        <v>483</v>
+      </c>
+      <c r="D11" t="n">
+        <v>586</v>
+      </c>
+      <c r="E11" t="n">
+        <v>664</v>
+      </c>
+      <c r="F11" t="n">
+        <v>726</v>
+      </c>
+      <c r="G11" t="n">
+        <v>819</v>
       </c>
     </row>
     <row r="12">
@@ -594,7 +734,19 @@
         <v>45683</v>
       </c>
       <c r="C12" t="n">
-        <v>417</v>
+        <v>389</v>
+      </c>
+      <c r="D12" t="n">
+        <v>592</v>
+      </c>
+      <c r="E12" t="n">
+        <v>673</v>
+      </c>
+      <c r="F12" t="n">
+        <v>739</v>
+      </c>
+      <c r="G12" t="n">
+        <v>837</v>
       </c>
     </row>
     <row r="13">
@@ -607,7 +759,19 @@
         <v>45690</v>
       </c>
       <c r="C13" t="n">
-        <v>403</v>
+        <v>271</v>
+      </c>
+      <c r="D13" t="n">
+        <v>582</v>
+      </c>
+      <c r="E13" t="n">
+        <v>665</v>
+      </c>
+      <c r="F13" t="n">
+        <v>735</v>
+      </c>
+      <c r="G13" t="n">
+        <v>839</v>
       </c>
     </row>
     <row r="14">
@@ -620,7 +784,19 @@
         <v>45697</v>
       </c>
       <c r="C14" t="n">
-        <v>400</v>
+        <v>248</v>
+      </c>
+      <c r="D14" t="n">
+        <v>571</v>
+      </c>
+      <c r="E14" t="n">
+        <v>654</v>
+      </c>
+      <c r="F14" t="n">
+        <v>723</v>
+      </c>
+      <c r="G14" t="n">
+        <v>826</v>
       </c>
     </row>
     <row r="15">
@@ -633,7 +809,19 @@
         <v>45704</v>
       </c>
       <c r="C15" t="n">
-        <v>405</v>
+        <v>331</v>
+      </c>
+      <c r="D15" t="n">
+        <v>551</v>
+      </c>
+      <c r="E15" t="n">
+        <v>633</v>
+      </c>
+      <c r="F15" t="n">
+        <v>701</v>
+      </c>
+      <c r="G15" t="n">
+        <v>804</v>
       </c>
     </row>
     <row r="16">
@@ -646,7 +834,19 @@
         <v>45711</v>
       </c>
       <c r="C16" t="n">
-        <v>407</v>
+        <v>398</v>
+      </c>
+      <c r="D16" t="n">
+        <v>549</v>
+      </c>
+      <c r="E16" t="n">
+        <v>632</v>
+      </c>
+      <c r="F16" t="n">
+        <v>703</v>
+      </c>
+      <c r="G16" t="n">
+        <v>810</v>
       </c>
     </row>
     <row r="17">
@@ -659,7 +859,19 @@
         <v>45718</v>
       </c>
       <c r="C17" t="n">
-        <v>402</v>
+        <v>387</v>
+      </c>
+      <c r="D17" t="n">
+        <v>555</v>
+      </c>
+      <c r="E17" t="n">
+        <v>637</v>
+      </c>
+      <c r="F17" t="n">
+        <v>706</v>
+      </c>
+      <c r="G17" t="n">
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
         <v>45613</v>
       </c>
       <c r="C2" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D2" t="n">
         <v>913</v>
@@ -509,7 +509,7 @@
         <v>45620</v>
       </c>
       <c r="C3" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D3" t="n">
         <v>1160</v>
@@ -534,7 +534,7 @@
         <v>45627</v>
       </c>
       <c r="C4" t="n">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D4" t="n">
         <v>969</v>
@@ -559,7 +559,7 @@
         <v>45634</v>
       </c>
       <c r="C5" t="n">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="D5" t="n">
         <v>808</v>
@@ -584,7 +584,7 @@
         <v>45641</v>
       </c>
       <c r="C6" t="n">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D6" t="n">
         <v>819</v>
@@ -634,7 +634,7 @@
         <v>45655</v>
       </c>
       <c r="C8" t="n">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D8" t="n">
         <v>622</v>
@@ -659,7 +659,7 @@
         <v>45662</v>
       </c>
       <c r="C9" t="n">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="D9" t="n">
         <v>645</v>
@@ -684,7 +684,7 @@
         <v>45669</v>
       </c>
       <c r="C10" t="n">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="D10" t="n">
         <v>601</v>
@@ -709,7 +709,7 @@
         <v>45676</v>
       </c>
       <c r="C11" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="D11" t="n">
         <v>586</v>
@@ -734,7 +734,7 @@
         <v>45683</v>
       </c>
       <c r="C12" t="n">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D12" t="n">
         <v>592</v>
@@ -759,7 +759,7 @@
         <v>45690</v>
       </c>
       <c r="C13" t="n">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D13" t="n">
         <v>582</v>
@@ -784,7 +784,7 @@
         <v>45697</v>
       </c>
       <c r="C14" t="n">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D14" t="n">
         <v>571</v>
@@ -809,7 +809,7 @@
         <v>45704</v>
       </c>
       <c r="C15" t="n">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D15" t="n">
         <v>551</v>
@@ -834,7 +834,7 @@
         <v>45711</v>
       </c>
       <c r="C16" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D16" t="n">
         <v>549</v>
@@ -859,7 +859,7 @@
         <v>45718</v>
       </c>
       <c r="C17" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D17" t="n">
         <v>555</v>
@@ -872,6 +872,906 @@
       </c>
       <c r="G17" t="n">
         <v>809</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Week 16</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45725</v>
+      </c>
+      <c r="C18" t="n">
+        <v>311</v>
+      </c>
+      <c r="D18" t="n">
+        <v>556</v>
+      </c>
+      <c r="E18" t="n">
+        <v>639</v>
+      </c>
+      <c r="F18" t="n">
+        <v>707</v>
+      </c>
+      <c r="G18" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Week 17</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="C19" t="n">
+        <v>272</v>
+      </c>
+      <c r="D19" t="n">
+        <v>563</v>
+      </c>
+      <c r="E19" t="n">
+        <v>647</v>
+      </c>
+      <c r="F19" t="n">
+        <v>718</v>
+      </c>
+      <c r="G19" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Week 18</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="C20" t="n">
+        <v>254</v>
+      </c>
+      <c r="D20" t="n">
+        <v>574</v>
+      </c>
+      <c r="E20" t="n">
+        <v>660</v>
+      </c>
+      <c r="F20" t="n">
+        <v>732</v>
+      </c>
+      <c r="G20" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Week 19</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45746</v>
+      </c>
+      <c r="C21" t="n">
+        <v>310</v>
+      </c>
+      <c r="D21" t="n">
+        <v>543</v>
+      </c>
+      <c r="E21" t="n">
+        <v>625</v>
+      </c>
+      <c r="F21" t="n">
+        <v>695</v>
+      </c>
+      <c r="G21" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Week 20</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="C22" t="n">
+        <v>379</v>
+      </c>
+      <c r="D22" t="n">
+        <v>545</v>
+      </c>
+      <c r="E22" t="n">
+        <v>630</v>
+      </c>
+      <c r="F22" t="n">
+        <v>703</v>
+      </c>
+      <c r="G22" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Week 21</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45760</v>
+      </c>
+      <c r="C23" t="n">
+        <v>465</v>
+      </c>
+      <c r="D23" t="n">
+        <v>538</v>
+      </c>
+      <c r="E23" t="n">
+        <v>622</v>
+      </c>
+      <c r="F23" t="n">
+        <v>694</v>
+      </c>
+      <c r="G23" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Week 22</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="C24" t="n">
+        <v>488</v>
+      </c>
+      <c r="D24" t="n">
+        <v>534</v>
+      </c>
+      <c r="E24" t="n">
+        <v>616</v>
+      </c>
+      <c r="F24" t="n">
+        <v>686</v>
+      </c>
+      <c r="G24" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Week 23</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="C25" t="n">
+        <v>441</v>
+      </c>
+      <c r="D25" t="n">
+        <v>526</v>
+      </c>
+      <c r="E25" t="n">
+        <v>607</v>
+      </c>
+      <c r="F25" t="n">
+        <v>675</v>
+      </c>
+      <c r="G25" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Week 24</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="C26" t="n">
+        <v>340</v>
+      </c>
+      <c r="D26" t="n">
+        <v>533</v>
+      </c>
+      <c r="E26" t="n">
+        <v>615</v>
+      </c>
+      <c r="F26" t="n">
+        <v>686</v>
+      </c>
+      <c r="G26" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Week 25</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="C27" t="n">
+        <v>294</v>
+      </c>
+      <c r="D27" t="n">
+        <v>520</v>
+      </c>
+      <c r="E27" t="n">
+        <v>602</v>
+      </c>
+      <c r="F27" t="n">
+        <v>673</v>
+      </c>
+      <c r="G27" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Week 26</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C28" t="n">
+        <v>338</v>
+      </c>
+      <c r="D28" t="n">
+        <v>516</v>
+      </c>
+      <c r="E28" t="n">
+        <v>595</v>
+      </c>
+      <c r="F28" t="n">
+        <v>663</v>
+      </c>
+      <c r="G28" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Week 27</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45802</v>
+      </c>
+      <c r="C29" t="n">
+        <v>386</v>
+      </c>
+      <c r="D29" t="n">
+        <v>518</v>
+      </c>
+      <c r="E29" t="n">
+        <v>601</v>
+      </c>
+      <c r="F29" t="n">
+        <v>673</v>
+      </c>
+      <c r="G29" t="n">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Week 28</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="C30" t="n">
+        <v>457</v>
+      </c>
+      <c r="D30" t="n">
+        <v>501</v>
+      </c>
+      <c r="E30" t="n">
+        <v>580</v>
+      </c>
+      <c r="F30" t="n">
+        <v>648</v>
+      </c>
+      <c r="G30" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Week 29</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="C31" t="n">
+        <v>431</v>
+      </c>
+      <c r="D31" t="n">
+        <v>518</v>
+      </c>
+      <c r="E31" t="n">
+        <v>600</v>
+      </c>
+      <c r="F31" t="n">
+        <v>672</v>
+      </c>
+      <c r="G31" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Week 30</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45823</v>
+      </c>
+      <c r="C32" t="n">
+        <v>419</v>
+      </c>
+      <c r="D32" t="n">
+        <v>520</v>
+      </c>
+      <c r="E32" t="n">
+        <v>601</v>
+      </c>
+      <c r="F32" t="n">
+        <v>669</v>
+      </c>
+      <c r="G32" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Week 31</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="C33" t="n">
+        <v>393</v>
+      </c>
+      <c r="D33" t="n">
+        <v>519</v>
+      </c>
+      <c r="E33" t="n">
+        <v>602</v>
+      </c>
+      <c r="F33" t="n">
+        <v>674</v>
+      </c>
+      <c r="G33" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Week 32</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="C34" t="n">
+        <v>414</v>
+      </c>
+      <c r="D34" t="n">
+        <v>510</v>
+      </c>
+      <c r="E34" t="n">
+        <v>590</v>
+      </c>
+      <c r="F34" t="n">
+        <v>659</v>
+      </c>
+      <c r="G34" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Week 33</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45844</v>
+      </c>
+      <c r="C35" t="n">
+        <v>454</v>
+      </c>
+      <c r="D35" t="n">
+        <v>639</v>
+      </c>
+      <c r="E35" t="n">
+        <v>760</v>
+      </c>
+      <c r="F35" t="n">
+        <v>878</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Week 34</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45851</v>
+      </c>
+      <c r="C36" t="n">
+        <v>531</v>
+      </c>
+      <c r="D36" t="n">
+        <v>645</v>
+      </c>
+      <c r="E36" t="n">
+        <v>771</v>
+      </c>
+      <c r="F36" t="n">
+        <v>899</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Week 35</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="C37" t="n">
+        <v>572</v>
+      </c>
+      <c r="D37" t="n">
+        <v>504</v>
+      </c>
+      <c r="E37" t="n">
+        <v>582</v>
+      </c>
+      <c r="F37" t="n">
+        <v>649</v>
+      </c>
+      <c r="G37" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Week 36</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45865</v>
+      </c>
+      <c r="C38" t="n">
+        <v>537</v>
+      </c>
+      <c r="D38" t="n">
+        <v>501</v>
+      </c>
+      <c r="E38" t="n">
+        <v>579</v>
+      </c>
+      <c r="F38" t="n">
+        <v>648</v>
+      </c>
+      <c r="G38" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Week 37</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45872</v>
+      </c>
+      <c r="C39" t="n">
+        <v>440</v>
+      </c>
+      <c r="D39" t="n">
+        <v>514</v>
+      </c>
+      <c r="E39" t="n">
+        <v>596</v>
+      </c>
+      <c r="F39" t="n">
+        <v>666</v>
+      </c>
+      <c r="G39" t="n">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Week 38</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45879</v>
+      </c>
+      <c r="C40" t="n">
+        <v>377</v>
+      </c>
+      <c r="D40" t="n">
+        <v>505</v>
+      </c>
+      <c r="E40" t="n">
+        <v>589</v>
+      </c>
+      <c r="F40" t="n">
+        <v>663</v>
+      </c>
+      <c r="G40" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Week 39</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45886</v>
+      </c>
+      <c r="C41" t="n">
+        <v>399</v>
+      </c>
+      <c r="D41" t="n">
+        <v>529</v>
+      </c>
+      <c r="E41" t="n">
+        <v>615</v>
+      </c>
+      <c r="F41" t="n">
+        <v>692</v>
+      </c>
+      <c r="G41" t="n">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Week 40</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="C42" t="n">
+        <v>433</v>
+      </c>
+      <c r="D42" t="n">
+        <v>505</v>
+      </c>
+      <c r="E42" t="n">
+        <v>589</v>
+      </c>
+      <c r="F42" t="n">
+        <v>663</v>
+      </c>
+      <c r="G42" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Week 41</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="C43" t="n">
+        <v>466</v>
+      </c>
+      <c r="D43" t="n">
+        <v>508</v>
+      </c>
+      <c r="E43" t="n">
+        <v>594</v>
+      </c>
+      <c r="F43" t="n">
+        <v>671</v>
+      </c>
+      <c r="G43" t="n">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Week 42</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="C44" t="n">
+        <v>428</v>
+      </c>
+      <c r="D44" t="n">
+        <v>485</v>
+      </c>
+      <c r="E44" t="n">
+        <v>563</v>
+      </c>
+      <c r="F44" t="n">
+        <v>632</v>
+      </c>
+      <c r="G44" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Week 43</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45914</v>
+      </c>
+      <c r="C45" t="n">
+        <v>445</v>
+      </c>
+      <c r="D45" t="n">
+        <v>492</v>
+      </c>
+      <c r="E45" t="n">
+        <v>576</v>
+      </c>
+      <c r="F45" t="n">
+        <v>652</v>
+      </c>
+      <c r="G45" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Week 44</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45921</v>
+      </c>
+      <c r="C46" t="n">
+        <v>425</v>
+      </c>
+      <c r="D46" t="n">
+        <v>488</v>
+      </c>
+      <c r="E46" t="n">
+        <v>571</v>
+      </c>
+      <c r="F46" t="n">
+        <v>645</v>
+      </c>
+      <c r="G46" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Week 45</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45928</v>
+      </c>
+      <c r="C47" t="n">
+        <v>393</v>
+      </c>
+      <c r="D47" t="n">
+        <v>484</v>
+      </c>
+      <c r="E47" t="n">
+        <v>562</v>
+      </c>
+      <c r="F47" t="n">
+        <v>631</v>
+      </c>
+      <c r="G47" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Week 46</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45935</v>
+      </c>
+      <c r="C48" t="n">
+        <v>340</v>
+      </c>
+      <c r="D48" t="n">
+        <v>464</v>
+      </c>
+      <c r="E48" t="n">
+        <v>538</v>
+      </c>
+      <c r="F48" t="n">
+        <v>603</v>
+      </c>
+      <c r="G48" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Week 47</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45942</v>
+      </c>
+      <c r="C49" t="n">
+        <v>325</v>
+      </c>
+      <c r="D49" t="n">
+        <v>460</v>
+      </c>
+      <c r="E49" t="n">
+        <v>538</v>
+      </c>
+      <c r="F49" t="n">
+        <v>609</v>
+      </c>
+      <c r="G49" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Week 48</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45949</v>
+      </c>
+      <c r="C50" t="n">
+        <v>335</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Week 49</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45956</v>
+      </c>
+      <c r="C51" t="n">
+        <v>325</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Week 50</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45963</v>
+      </c>
+      <c r="C52" t="n">
+        <v>271</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Week 51</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45970</v>
+      </c>
+      <c r="C53" t="n">
+        <v>217</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -484,7 +484,7 @@
         <v>45613</v>
       </c>
       <c r="C2" t="n">
-        <v>582</v>
+        <v>765</v>
       </c>
       <c r="D2" t="n">
         <v>913</v>
@@ -509,7 +509,7 @@
         <v>45620</v>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>1007</v>
       </c>
       <c r="D3" t="n">
         <v>1160</v>
@@ -534,7 +534,7 @@
         <v>45627</v>
       </c>
       <c r="C4" t="n">
-        <v>672</v>
+        <v>1337</v>
       </c>
       <c r="D4" t="n">
         <v>969</v>
@@ -559,7 +559,7 @@
         <v>45634</v>
       </c>
       <c r="C5" t="n">
-        <v>717</v>
+        <v>1646</v>
       </c>
       <c r="D5" t="n">
         <v>808</v>
@@ -584,7 +584,7 @@
         <v>45641</v>
       </c>
       <c r="C6" t="n">
-        <v>775</v>
+        <v>1837</v>
       </c>
       <c r="D6" t="n">
         <v>819</v>
@@ -609,7 +609,7 @@
         <v>45648</v>
       </c>
       <c r="C7" t="n">
-        <v>734</v>
+        <v>1903</v>
       </c>
       <c r="D7" t="n">
         <v>668</v>
@@ -634,7 +634,7 @@
         <v>45655</v>
       </c>
       <c r="C8" t="n">
-        <v>653</v>
+        <v>1913</v>
       </c>
       <c r="D8" t="n">
         <v>622</v>
@@ -659,7 +659,7 @@
         <v>45662</v>
       </c>
       <c r="C9" t="n">
-        <v>549</v>
+        <v>1912</v>
       </c>
       <c r="D9" t="n">
         <v>645</v>
@@ -684,7 +684,7 @@
         <v>45669</v>
       </c>
       <c r="C10" t="n">
-        <v>505</v>
+        <v>1878</v>
       </c>
       <c r="D10" t="n">
         <v>601</v>
@@ -709,7 +709,7 @@
         <v>45676</v>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>1772</v>
       </c>
       <c r="D11" t="n">
         <v>586</v>
@@ -734,7 +734,7 @@
         <v>45683</v>
       </c>
       <c r="C12" t="n">
-        <v>375</v>
+        <v>1612</v>
       </c>
       <c r="D12" t="n">
         <v>592</v>
@@ -759,7 +759,7 @@
         <v>45690</v>
       </c>
       <c r="C13" t="n">
-        <v>276</v>
+        <v>1473</v>
       </c>
       <c r="D13" t="n">
         <v>582</v>
@@ -784,7 +784,7 @@
         <v>45697</v>
       </c>
       <c r="C14" t="n">
-        <v>263</v>
+        <v>1404</v>
       </c>
       <c r="D14" t="n">
         <v>571</v>
@@ -809,7 +809,7 @@
         <v>45704</v>
       </c>
       <c r="C15" t="n">
-        <v>346</v>
+        <v>1366</v>
       </c>
       <c r="D15" t="n">
         <v>551</v>
@@ -834,7 +834,7 @@
         <v>45711</v>
       </c>
       <c r="C16" t="n">
-        <v>407</v>
+        <v>1283</v>
       </c>
       <c r="D16" t="n">
         <v>549</v>
@@ -859,7 +859,7 @@
         <v>45718</v>
       </c>
       <c r="C17" t="n">
-        <v>390</v>
+        <v>1136</v>
       </c>
       <c r="D17" t="n">
         <v>555</v>
@@ -884,7 +884,7 @@
         <v>45725</v>
       </c>
       <c r="C18" t="n">
-        <v>311</v>
+        <v>992</v>
       </c>
       <c r="D18" t="n">
         <v>556</v>
@@ -909,7 +909,7 @@
         <v>45732</v>
       </c>
       <c r="C19" t="n">
-        <v>272</v>
+        <v>929</v>
       </c>
       <c r="D19" t="n">
         <v>563</v>
@@ -934,7 +934,7 @@
         <v>45739</v>
       </c>
       <c r="C20" t="n">
-        <v>254</v>
+        <v>944</v>
       </c>
       <c r="D20" t="n">
         <v>574</v>
@@ -959,7 +959,7 @@
         <v>45746</v>
       </c>
       <c r="C21" t="n">
-        <v>310</v>
+        <v>966</v>
       </c>
       <c r="D21" t="n">
         <v>543</v>
@@ -984,7 +984,7 @@
         <v>45753</v>
       </c>
       <c r="C22" t="n">
-        <v>379</v>
+        <v>938</v>
       </c>
       <c r="D22" t="n">
         <v>545</v>
@@ -1009,7 +1009,7 @@
         <v>45760</v>
       </c>
       <c r="C23" t="n">
-        <v>465</v>
+        <v>886</v>
       </c>
       <c r="D23" t="n">
         <v>538</v>
@@ -1034,7 +1034,7 @@
         <v>45767</v>
       </c>
       <c r="C24" t="n">
-        <v>488</v>
+        <v>875</v>
       </c>
       <c r="D24" t="n">
         <v>534</v>
@@ -1059,7 +1059,7 @@
         <v>45774</v>
       </c>
       <c r="C25" t="n">
-        <v>441</v>
+        <v>925</v>
       </c>
       <c r="D25" t="n">
         <v>526</v>
@@ -1084,7 +1084,7 @@
         <v>45781</v>
       </c>
       <c r="C26" t="n">
-        <v>340</v>
+        <v>983</v>
       </c>
       <c r="D26" t="n">
         <v>533</v>
@@ -1109,7 +1109,7 @@
         <v>45788</v>
       </c>
       <c r="C27" t="n">
-        <v>294</v>
+        <v>987</v>
       </c>
       <c r="D27" t="n">
         <v>520</v>
@@ -1134,7 +1134,7 @@
         <v>45795</v>
       </c>
       <c r="C28" t="n">
-        <v>338</v>
+        <v>937</v>
       </c>
       <c r="D28" t="n">
         <v>516</v>
@@ -1159,7 +1159,7 @@
         <v>45802</v>
       </c>
       <c r="C29" t="n">
-        <v>386</v>
+        <v>887</v>
       </c>
       <c r="D29" t="n">
         <v>518</v>
@@ -1184,7 +1184,7 @@
         <v>45809</v>
       </c>
       <c r="C30" t="n">
-        <v>457</v>
+        <v>876</v>
       </c>
       <c r="D30" t="n">
         <v>501</v>
@@ -1209,7 +1209,7 @@
         <v>45816</v>
       </c>
       <c r="C31" t="n">
-        <v>431</v>
+        <v>892</v>
       </c>
       <c r="D31" t="n">
         <v>518</v>
@@ -1234,7 +1234,7 @@
         <v>45823</v>
       </c>
       <c r="C32" t="n">
-        <v>419</v>
+        <v>896</v>
       </c>
       <c r="D32" t="n">
         <v>520</v>
@@ -1259,7 +1259,7 @@
         <v>45830</v>
       </c>
       <c r="C33" t="n">
-        <v>393</v>
+        <v>883</v>
       </c>
       <c r="D33" t="n">
         <v>519</v>
@@ -1284,7 +1284,7 @@
         <v>45837</v>
       </c>
       <c r="C34" t="n">
-        <v>414</v>
+        <v>878</v>
       </c>
       <c r="D34" t="n">
         <v>510</v>
@@ -1309,7 +1309,7 @@
         <v>45844</v>
       </c>
       <c r="C35" t="n">
-        <v>454</v>
+        <v>894</v>
       </c>
       <c r="D35" t="n">
         <v>639</v>
@@ -1334,7 +1334,7 @@
         <v>45851</v>
       </c>
       <c r="C36" t="n">
-        <v>531</v>
+        <v>906</v>
       </c>
       <c r="D36" t="n">
         <v>645</v>
@@ -1359,7 +1359,7 @@
         <v>45858</v>
       </c>
       <c r="C37" t="n">
-        <v>572</v>
+        <v>888</v>
       </c>
       <c r="D37" t="n">
         <v>504</v>
@@ -1384,7 +1384,7 @@
         <v>45865</v>
       </c>
       <c r="C38" t="n">
-        <v>537</v>
+        <v>858</v>
       </c>
       <c r="D38" t="n">
         <v>501</v>
@@ -1409,7 +1409,7 @@
         <v>45872</v>
       </c>
       <c r="C39" t="n">
-        <v>440</v>
+        <v>856</v>
       </c>
       <c r="D39" t="n">
         <v>514</v>
@@ -1434,7 +1434,7 @@
         <v>45879</v>
       </c>
       <c r="C40" t="n">
-        <v>377</v>
+        <v>888</v>
       </c>
       <c r="D40" t="n">
         <v>505</v>
@@ -1459,7 +1459,7 @@
         <v>45886</v>
       </c>
       <c r="C41" t="n">
-        <v>399</v>
+        <v>904</v>
       </c>
       <c r="D41" t="n">
         <v>529</v>
@@ -1484,7 +1484,7 @@
         <v>45893</v>
       </c>
       <c r="C42" t="n">
-        <v>433</v>
+        <v>856</v>
       </c>
       <c r="D42" t="n">
         <v>505</v>
@@ -1509,7 +1509,7 @@
         <v>45900</v>
       </c>
       <c r="C43" t="n">
-        <v>466</v>
+        <v>763</v>
       </c>
       <c r="D43" t="n">
         <v>508</v>
@@ -1534,7 +1534,7 @@
         <v>45907</v>
       </c>
       <c r="C44" t="n">
-        <v>428</v>
+        <v>709</v>
       </c>
       <c r="D44" t="n">
         <v>485</v>
@@ -1559,7 +1559,7 @@
         <v>45914</v>
       </c>
       <c r="C45" t="n">
-        <v>445</v>
+        <v>743</v>
       </c>
       <c r="D45" t="n">
         <v>492</v>
@@ -1584,7 +1584,7 @@
         <v>45921</v>
       </c>
       <c r="C46" t="n">
-        <v>425</v>
+        <v>820</v>
       </c>
       <c r="D46" t="n">
         <v>488</v>
@@ -1609,7 +1609,7 @@
         <v>45928</v>
       </c>
       <c r="C47" t="n">
-        <v>393</v>
+        <v>839</v>
       </c>
       <c r="D47" t="n">
         <v>484</v>
@@ -1634,7 +1634,7 @@
         <v>45935</v>
       </c>
       <c r="C48" t="n">
-        <v>340</v>
+        <v>758</v>
       </c>
       <c r="D48" t="n">
         <v>464</v>
@@ -1659,7 +1659,7 @@
         <v>45942</v>
       </c>
       <c r="C49" t="n">
-        <v>325</v>
+        <v>636</v>
       </c>
       <c r="D49" t="n">
         <v>460</v>
@@ -1684,7 +1684,7 @@
         <v>45949</v>
       </c>
       <c r="C50" t="n">
-        <v>335</v>
+        <v>568</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>45956</v>
       </c>
       <c r="C51" t="n">
-        <v>325</v>
+        <v>585</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>45963</v>
       </c>
       <c r="C52" t="n">
-        <v>271</v>
+        <v>643</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>45970</v>
       </c>
       <c r="C53" t="n">
-        <v>217</v>
+        <v>713</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
         <v>45613</v>
       </c>
       <c r="C2" t="n">
-        <v>765</v>
+        <v>550</v>
       </c>
       <c r="D2" t="n">
         <v>913</v>
@@ -509,7 +509,7 @@
         <v>45620</v>
       </c>
       <c r="C3" t="n">
-        <v>1007</v>
+        <v>580</v>
       </c>
       <c r="D3" t="n">
         <v>1160</v>
@@ -534,7 +534,7 @@
         <v>45627</v>
       </c>
       <c r="C4" t="n">
-        <v>1337</v>
+        <v>659</v>
       </c>
       <c r="D4" t="n">
         <v>969</v>
@@ -559,7 +559,7 @@
         <v>45634</v>
       </c>
       <c r="C5" t="n">
-        <v>1646</v>
+        <v>754</v>
       </c>
       <c r="D5" t="n">
         <v>808</v>
@@ -584,7 +584,7 @@
         <v>45641</v>
       </c>
       <c r="C6" t="n">
-        <v>1837</v>
+        <v>795</v>
       </c>
       <c r="D6" t="n">
         <v>819</v>
@@ -609,7 +609,7 @@
         <v>45648</v>
       </c>
       <c r="C7" t="n">
-        <v>1903</v>
+        <v>741</v>
       </c>
       <c r="D7" t="n">
         <v>668</v>
@@ -634,7 +634,7 @@
         <v>45655</v>
       </c>
       <c r="C8" t="n">
-        <v>1913</v>
+        <v>616</v>
       </c>
       <c r="D8" t="n">
         <v>622</v>
@@ -659,7 +659,7 @@
         <v>45662</v>
       </c>
       <c r="C9" t="n">
-        <v>1912</v>
+        <v>488</v>
       </c>
       <c r="D9" t="n">
         <v>645</v>
@@ -684,7 +684,7 @@
         <v>45669</v>
       </c>
       <c r="C10" t="n">
-        <v>1878</v>
+        <v>408</v>
       </c>
       <c r="D10" t="n">
         <v>601</v>
@@ -709,7 +709,7 @@
         <v>45676</v>
       </c>
       <c r="C11" t="n">
-        <v>1772</v>
+        <v>377</v>
       </c>
       <c r="D11" t="n">
         <v>586</v>
@@ -734,7 +734,7 @@
         <v>45683</v>
       </c>
       <c r="C12" t="n">
-        <v>1612</v>
+        <v>367</v>
       </c>
       <c r="D12" t="n">
         <v>592</v>
@@ -759,7 +759,7 @@
         <v>45690</v>
       </c>
       <c r="C13" t="n">
-        <v>1473</v>
+        <v>357</v>
       </c>
       <c r="D13" t="n">
         <v>582</v>
@@ -784,7 +784,7 @@
         <v>45697</v>
       </c>
       <c r="C14" t="n">
-        <v>1404</v>
+        <v>346</v>
       </c>
       <c r="D14" t="n">
         <v>571</v>
@@ -809,7 +809,7 @@
         <v>45704</v>
       </c>
       <c r="C15" t="n">
-        <v>1366</v>
+        <v>343</v>
       </c>
       <c r="D15" t="n">
         <v>551</v>
@@ -834,7 +834,7 @@
         <v>45711</v>
       </c>
       <c r="C16" t="n">
-        <v>1283</v>
+        <v>346</v>
       </c>
       <c r="D16" t="n">
         <v>549</v>
@@ -859,7 +859,7 @@
         <v>45718</v>
       </c>
       <c r="C17" t="n">
-        <v>1136</v>
+        <v>349</v>
       </c>
       <c r="D17" t="n">
         <v>555</v>
@@ -884,7 +884,7 @@
         <v>45725</v>
       </c>
       <c r="C18" t="n">
-        <v>992</v>
+        <v>348</v>
       </c>
       <c r="D18" t="n">
         <v>556</v>
@@ -909,7 +909,7 @@
         <v>45732</v>
       </c>
       <c r="C19" t="n">
-        <v>929</v>
+        <v>350</v>
       </c>
       <c r="D19" t="n">
         <v>563</v>
@@ -934,7 +934,7 @@
         <v>45739</v>
       </c>
       <c r="C20" t="n">
-        <v>944</v>
+        <v>355</v>
       </c>
       <c r="D20" t="n">
         <v>574</v>
@@ -959,7 +959,7 @@
         <v>45746</v>
       </c>
       <c r="C21" t="n">
-        <v>966</v>
+        <v>361</v>
       </c>
       <c r="D21" t="n">
         <v>543</v>
@@ -984,7 +984,7 @@
         <v>45753</v>
       </c>
       <c r="C22" t="n">
-        <v>938</v>
+        <v>362</v>
       </c>
       <c r="D22" t="n">
         <v>545</v>
@@ -1009,7 +1009,7 @@
         <v>45760</v>
       </c>
       <c r="C23" t="n">
-        <v>886</v>
+        <v>362</v>
       </c>
       <c r="D23" t="n">
         <v>538</v>
@@ -1034,7 +1034,7 @@
         <v>45767</v>
       </c>
       <c r="C24" t="n">
-        <v>875</v>
+        <v>368</v>
       </c>
       <c r="D24" t="n">
         <v>534</v>
@@ -1059,7 +1059,7 @@
         <v>45774</v>
       </c>
       <c r="C25" t="n">
-        <v>925</v>
+        <v>385</v>
       </c>
       <c r="D25" t="n">
         <v>526</v>
@@ -1084,7 +1084,7 @@
         <v>45781</v>
       </c>
       <c r="C26" t="n">
-        <v>983</v>
+        <v>404</v>
       </c>
       <c r="D26" t="n">
         <v>533</v>
@@ -1109,7 +1109,7 @@
         <v>45788</v>
       </c>
       <c r="C27" t="n">
-        <v>987</v>
+        <v>415</v>
       </c>
       <c r="D27" t="n">
         <v>520</v>
@@ -1134,7 +1134,7 @@
         <v>45795</v>
       </c>
       <c r="C28" t="n">
-        <v>937</v>
+        <v>417</v>
       </c>
       <c r="D28" t="n">
         <v>516</v>
@@ -1159,7 +1159,7 @@
         <v>45802</v>
       </c>
       <c r="C29" t="n">
-        <v>887</v>
+        <v>418</v>
       </c>
       <c r="D29" t="n">
         <v>518</v>
@@ -1184,7 +1184,7 @@
         <v>45809</v>
       </c>
       <c r="C30" t="n">
-        <v>876</v>
+        <v>424</v>
       </c>
       <c r="D30" t="n">
         <v>501</v>
@@ -1209,7 +1209,7 @@
         <v>45816</v>
       </c>
       <c r="C31" t="n">
-        <v>892</v>
+        <v>435</v>
       </c>
       <c r="D31" t="n">
         <v>518</v>
@@ -1234,7 +1234,7 @@
         <v>45823</v>
       </c>
       <c r="C32" t="n">
-        <v>896</v>
+        <v>446</v>
       </c>
       <c r="D32" t="n">
         <v>520</v>
@@ -1259,7 +1259,7 @@
         <v>45830</v>
       </c>
       <c r="C33" t="n">
-        <v>883</v>
+        <v>459</v>
       </c>
       <c r="D33" t="n">
         <v>519</v>
@@ -1284,7 +1284,7 @@
         <v>45837</v>
       </c>
       <c r="C34" t="n">
-        <v>878</v>
+        <v>472</v>
       </c>
       <c r="D34" t="n">
         <v>510</v>
@@ -1309,7 +1309,7 @@
         <v>45844</v>
       </c>
       <c r="C35" t="n">
-        <v>894</v>
+        <v>485</v>
       </c>
       <c r="D35" t="n">
         <v>639</v>
@@ -1334,7 +1334,7 @@
         <v>45851</v>
       </c>
       <c r="C36" t="n">
-        <v>906</v>
+        <v>488</v>
       </c>
       <c r="D36" t="n">
         <v>645</v>
@@ -1359,7 +1359,7 @@
         <v>45858</v>
       </c>
       <c r="C37" t="n">
-        <v>888</v>
+        <v>482</v>
       </c>
       <c r="D37" t="n">
         <v>504</v>
@@ -1384,7 +1384,7 @@
         <v>45865</v>
       </c>
       <c r="C38" t="n">
-        <v>858</v>
+        <v>479</v>
       </c>
       <c r="D38" t="n">
         <v>501</v>
@@ -1409,7 +1409,7 @@
         <v>45872</v>
       </c>
       <c r="C39" t="n">
-        <v>856</v>
+        <v>490</v>
       </c>
       <c r="D39" t="n">
         <v>514</v>
@@ -1434,7 +1434,7 @@
         <v>45879</v>
       </c>
       <c r="C40" t="n">
-        <v>888</v>
+        <v>510</v>
       </c>
       <c r="D40" t="n">
         <v>505</v>
@@ -1459,7 +1459,7 @@
         <v>45886</v>
       </c>
       <c r="C41" t="n">
-        <v>904</v>
+        <v>515</v>
       </c>
       <c r="D41" t="n">
         <v>529</v>
@@ -1484,7 +1484,7 @@
         <v>45893</v>
       </c>
       <c r="C42" t="n">
-        <v>856</v>
+        <v>490</v>
       </c>
       <c r="D42" t="n">
         <v>505</v>
@@ -1509,7 +1509,7 @@
         <v>45900</v>
       </c>
       <c r="C43" t="n">
-        <v>763</v>
+        <v>446</v>
       </c>
       <c r="D43" t="n">
         <v>508</v>
@@ -1534,7 +1534,7 @@
         <v>45907</v>
       </c>
       <c r="C44" t="n">
-        <v>709</v>
+        <v>417</v>
       </c>
       <c r="D44" t="n">
         <v>485</v>
@@ -1559,7 +1559,7 @@
         <v>45914</v>
       </c>
       <c r="C45" t="n">
-        <v>743</v>
+        <v>424</v>
       </c>
       <c r="D45" t="n">
         <v>492</v>
@@ -1584,7 +1584,7 @@
         <v>45921</v>
       </c>
       <c r="C46" t="n">
-        <v>820</v>
+        <v>447</v>
       </c>
       <c r="D46" t="n">
         <v>488</v>
@@ -1609,7 +1609,7 @@
         <v>45928</v>
       </c>
       <c r="C47" t="n">
-        <v>839</v>
+        <v>445</v>
       </c>
       <c r="D47" t="n">
         <v>484</v>
@@ -1634,7 +1634,7 @@
         <v>45935</v>
       </c>
       <c r="C48" t="n">
-        <v>758</v>
+        <v>397</v>
       </c>
       <c r="D48" t="n">
         <v>464</v>
@@ -1659,7 +1659,7 @@
         <v>45942</v>
       </c>
       <c r="C49" t="n">
-        <v>636</v>
+        <v>326</v>
       </c>
       <c r="D49" t="n">
         <v>460</v>
@@ -1672,106 +1672,6 @@
       </c>
       <c r="G49" t="n">
         <v>716</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Week 48</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>45949</v>
-      </c>
-      <c r="C50" t="n">
-        <v>568</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Week 49</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>45956</v>
-      </c>
-      <c r="C51" t="n">
-        <v>585</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Week 50</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>45963</v>
-      </c>
-      <c r="C52" t="n">
-        <v>643</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Week 51</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>45970</v>
-      </c>
-      <c r="C53" t="n">
-        <v>713</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -484,7 +484,7 @@
         <v>45613</v>
       </c>
       <c r="C2" t="n">
-        <v>550</v>
+        <v>712</v>
       </c>
       <c r="D2" t="n">
         <v>913</v>
@@ -509,7 +509,7 @@
         <v>45620</v>
       </c>
       <c r="C3" t="n">
-        <v>580</v>
+        <v>830</v>
       </c>
       <c r="D3" t="n">
         <v>1160</v>
@@ -534,7 +534,7 @@
         <v>45627</v>
       </c>
       <c r="C4" t="n">
-        <v>659</v>
+        <v>991</v>
       </c>
       <c r="D4" t="n">
         <v>969</v>
@@ -559,7 +559,7 @@
         <v>45634</v>
       </c>
       <c r="C5" t="n">
-        <v>754</v>
+        <v>1143</v>
       </c>
       <c r="D5" t="n">
         <v>808</v>
@@ -584,7 +584,7 @@
         <v>45641</v>
       </c>
       <c r="C6" t="n">
-        <v>795</v>
+        <v>1209</v>
       </c>
       <c r="D6" t="n">
         <v>819</v>
@@ -609,7 +609,7 @@
         <v>45648</v>
       </c>
       <c r="C7" t="n">
-        <v>741</v>
+        <v>1163</v>
       </c>
       <c r="D7" t="n">
         <v>668</v>
@@ -634,7 +634,7 @@
         <v>45655</v>
       </c>
       <c r="C8" t="n">
-        <v>616</v>
+        <v>1051</v>
       </c>
       <c r="D8" t="n">
         <v>622</v>
@@ -659,7 +659,7 @@
         <v>45662</v>
       </c>
       <c r="C9" t="n">
-        <v>488</v>
+        <v>937</v>
       </c>
       <c r="D9" t="n">
         <v>645</v>
@@ -684,7 +684,7 @@
         <v>45669</v>
       </c>
       <c r="C10" t="n">
-        <v>408</v>
+        <v>852</v>
       </c>
       <c r="D10" t="n">
         <v>601</v>
@@ -709,7 +709,7 @@
         <v>45676</v>
       </c>
       <c r="C11" t="n">
-        <v>377</v>
+        <v>789</v>
       </c>
       <c r="D11" t="n">
         <v>586</v>
@@ -734,7 +734,7 @@
         <v>45683</v>
       </c>
       <c r="C12" t="n">
-        <v>367</v>
+        <v>738</v>
       </c>
       <c r="D12" t="n">
         <v>592</v>
@@ -759,7 +759,7 @@
         <v>45690</v>
       </c>
       <c r="C13" t="n">
-        <v>357</v>
+        <v>713</v>
       </c>
       <c r="D13" t="n">
         <v>582</v>
@@ -784,7 +784,7 @@
         <v>45697</v>
       </c>
       <c r="C14" t="n">
-        <v>346</v>
+        <v>719</v>
       </c>
       <c r="D14" t="n">
         <v>571</v>
@@ -809,7 +809,7 @@
         <v>45704</v>
       </c>
       <c r="C15" t="n">
-        <v>343</v>
+        <v>738</v>
       </c>
       <c r="D15" t="n">
         <v>551</v>
@@ -834,7 +834,7 @@
         <v>45711</v>
       </c>
       <c r="C16" t="n">
-        <v>346</v>
+        <v>733</v>
       </c>
       <c r="D16" t="n">
         <v>549</v>
@@ -859,7 +859,7 @@
         <v>45718</v>
       </c>
       <c r="C17" t="n">
-        <v>349</v>
+        <v>697</v>
       </c>
       <c r="D17" t="n">
         <v>555</v>
@@ -884,7 +884,7 @@
         <v>45725</v>
       </c>
       <c r="C18" t="n">
-        <v>348</v>
+        <v>663</v>
       </c>
       <c r="D18" t="n">
         <v>556</v>
@@ -909,7 +909,7 @@
         <v>45732</v>
       </c>
       <c r="C19" t="n">
-        <v>350</v>
+        <v>669</v>
       </c>
       <c r="D19" t="n">
         <v>563</v>
@@ -934,7 +934,7 @@
         <v>45739</v>
       </c>
       <c r="C20" t="n">
-        <v>355</v>
+        <v>710</v>
       </c>
       <c r="D20" t="n">
         <v>574</v>
@@ -959,7 +959,7 @@
         <v>45746</v>
       </c>
       <c r="C21" t="n">
-        <v>361</v>
+        <v>745</v>
       </c>
       <c r="D21" t="n">
         <v>543</v>
@@ -984,7 +984,7 @@
         <v>45753</v>
       </c>
       <c r="C22" t="n">
-        <v>362</v>
+        <v>750</v>
       </c>
       <c r="D22" t="n">
         <v>545</v>
@@ -1009,7 +1009,7 @@
         <v>45760</v>
       </c>
       <c r="C23" t="n">
-        <v>362</v>
+        <v>747</v>
       </c>
       <c r="D23" t="n">
         <v>538</v>
@@ -1034,7 +1034,7 @@
         <v>45767</v>
       </c>
       <c r="C24" t="n">
-        <v>368</v>
+        <v>781</v>
       </c>
       <c r="D24" t="n">
         <v>534</v>
@@ -1059,7 +1059,7 @@
         <v>45774</v>
       </c>
       <c r="C25" t="n">
-        <v>385</v>
+        <v>856</v>
       </c>
       <c r="D25" t="n">
         <v>526</v>
@@ -1084,7 +1084,7 @@
         <v>45781</v>
       </c>
       <c r="C26" t="n">
-        <v>404</v>
+        <v>932</v>
       </c>
       <c r="D26" t="n">
         <v>533</v>
@@ -1109,7 +1109,7 @@
         <v>45788</v>
       </c>
       <c r="C27" t="n">
-        <v>415</v>
+        <v>963</v>
       </c>
       <c r="D27" t="n">
         <v>520</v>
@@ -1134,7 +1134,7 @@
         <v>45795</v>
       </c>
       <c r="C28" t="n">
-        <v>417</v>
+        <v>954</v>
       </c>
       <c r="D28" t="n">
         <v>516</v>
@@ -1159,7 +1159,7 @@
         <v>45802</v>
       </c>
       <c r="C29" t="n">
-        <v>418</v>
+        <v>943</v>
       </c>
       <c r="D29" t="n">
         <v>518</v>
@@ -1184,7 +1184,7 @@
         <v>45809</v>
       </c>
       <c r="C30" t="n">
-        <v>424</v>
+        <v>961</v>
       </c>
       <c r="D30" t="n">
         <v>501</v>
@@ -1209,7 +1209,7 @@
         <v>45816</v>
       </c>
       <c r="C31" t="n">
-        <v>435</v>
+        <v>995</v>
       </c>
       <c r="D31" t="n">
         <v>518</v>
@@ -1234,7 +1234,7 @@
         <v>45823</v>
       </c>
       <c r="C32" t="n">
-        <v>446</v>
+        <v>1017</v>
       </c>
       <c r="D32" t="n">
         <v>520</v>
@@ -1259,7 +1259,7 @@
         <v>45830</v>
       </c>
       <c r="C33" t="n">
-        <v>459</v>
+        <v>1023</v>
       </c>
       <c r="D33" t="n">
         <v>519</v>
@@ -1284,7 +1284,7 @@
         <v>45837</v>
       </c>
       <c r="C34" t="n">
-        <v>472</v>
+        <v>1032</v>
       </c>
       <c r="D34" t="n">
         <v>510</v>
@@ -1309,7 +1309,7 @@
         <v>45844</v>
       </c>
       <c r="C35" t="n">
-        <v>485</v>
+        <v>1051</v>
       </c>
       <c r="D35" t="n">
         <v>639</v>
@@ -1334,7 +1334,7 @@
         <v>45851</v>
       </c>
       <c r="C36" t="n">
-        <v>488</v>
+        <v>1061</v>
       </c>
       <c r="D36" t="n">
         <v>645</v>
@@ -1359,7 +1359,7 @@
         <v>45858</v>
       </c>
       <c r="C37" t="n">
-        <v>482</v>
+        <v>1045</v>
       </c>
       <c r="D37" t="n">
         <v>504</v>
@@ -1384,7 +1384,7 @@
         <v>45865</v>
       </c>
       <c r="C38" t="n">
-        <v>479</v>
+        <v>1018</v>
       </c>
       <c r="D38" t="n">
         <v>501</v>
@@ -1409,7 +1409,7 @@
         <v>45872</v>
       </c>
       <c r="C39" t="n">
-        <v>490</v>
+        <v>1019</v>
       </c>
       <c r="D39" t="n">
         <v>514</v>
@@ -1434,7 +1434,7 @@
         <v>45879</v>
       </c>
       <c r="C40" t="n">
-        <v>510</v>
+        <v>1052</v>
       </c>
       <c r="D40" t="n">
         <v>505</v>
@@ -1459,7 +1459,7 @@
         <v>45886</v>
       </c>
       <c r="C41" t="n">
-        <v>515</v>
+        <v>1066</v>
       </c>
       <c r="D41" t="n">
         <v>529</v>
@@ -1484,7 +1484,7 @@
         <v>45893</v>
       </c>
       <c r="C42" t="n">
-        <v>490</v>
+        <v>1013</v>
       </c>
       <c r="D42" t="n">
         <v>505</v>
@@ -1509,7 +1509,7 @@
         <v>45900</v>
       </c>
       <c r="C43" t="n">
-        <v>446</v>
+        <v>914</v>
       </c>
       <c r="D43" t="n">
         <v>508</v>
@@ -1534,7 +1534,7 @@
         <v>45907</v>
       </c>
       <c r="C44" t="n">
-        <v>417</v>
+        <v>854</v>
       </c>
       <c r="D44" t="n">
         <v>485</v>
@@ -1559,7 +1559,7 @@
         <v>45914</v>
       </c>
       <c r="C45" t="n">
-        <v>424</v>
+        <v>889</v>
       </c>
       <c r="D45" t="n">
         <v>492</v>
@@ -1584,7 +1584,7 @@
         <v>45921</v>
       </c>
       <c r="C46" t="n">
-        <v>447</v>
+        <v>977</v>
       </c>
       <c r="D46" t="n">
         <v>488</v>
@@ -1609,7 +1609,7 @@
         <v>45928</v>
       </c>
       <c r="C47" t="n">
-        <v>445</v>
+        <v>1004</v>
       </c>
       <c r="D47" t="n">
         <v>484</v>
@@ -1634,7 +1634,7 @@
         <v>45935</v>
       </c>
       <c r="C48" t="n">
-        <v>397</v>
+        <v>906</v>
       </c>
       <c r="D48" t="n">
         <v>464</v>
@@ -1659,7 +1659,7 @@
         <v>45942</v>
       </c>
       <c r="C49" t="n">
-        <v>326</v>
+        <v>738</v>
       </c>
       <c r="D49" t="n">
         <v>460</v>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,706 +974,6 @@
         <v>801</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Week 20</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>45753</v>
-      </c>
-      <c r="C22" t="n">
-        <v>750</v>
-      </c>
-      <c r="D22" t="n">
-        <v>545</v>
-      </c>
-      <c r="E22" t="n">
-        <v>630</v>
-      </c>
-      <c r="F22" t="n">
-        <v>703</v>
-      </c>
-      <c r="G22" t="n">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Week 21</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>45760</v>
-      </c>
-      <c r="C23" t="n">
-        <v>747</v>
-      </c>
-      <c r="D23" t="n">
-        <v>538</v>
-      </c>
-      <c r="E23" t="n">
-        <v>622</v>
-      </c>
-      <c r="F23" t="n">
-        <v>694</v>
-      </c>
-      <c r="G23" t="n">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Week 22</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>45767</v>
-      </c>
-      <c r="C24" t="n">
-        <v>781</v>
-      </c>
-      <c r="D24" t="n">
-        <v>534</v>
-      </c>
-      <c r="E24" t="n">
-        <v>616</v>
-      </c>
-      <c r="F24" t="n">
-        <v>686</v>
-      </c>
-      <c r="G24" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Week 23</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>45774</v>
-      </c>
-      <c r="C25" t="n">
-        <v>856</v>
-      </c>
-      <c r="D25" t="n">
-        <v>526</v>
-      </c>
-      <c r="E25" t="n">
-        <v>607</v>
-      </c>
-      <c r="F25" t="n">
-        <v>675</v>
-      </c>
-      <c r="G25" t="n">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Week 24</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>45781</v>
-      </c>
-      <c r="C26" t="n">
-        <v>932</v>
-      </c>
-      <c r="D26" t="n">
-        <v>533</v>
-      </c>
-      <c r="E26" t="n">
-        <v>615</v>
-      </c>
-      <c r="F26" t="n">
-        <v>686</v>
-      </c>
-      <c r="G26" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Week 25</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="C27" t="n">
-        <v>963</v>
-      </c>
-      <c r="D27" t="n">
-        <v>520</v>
-      </c>
-      <c r="E27" t="n">
-        <v>602</v>
-      </c>
-      <c r="F27" t="n">
-        <v>673</v>
-      </c>
-      <c r="G27" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Week 26</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>45795</v>
-      </c>
-      <c r="C28" t="n">
-        <v>954</v>
-      </c>
-      <c r="D28" t="n">
-        <v>516</v>
-      </c>
-      <c r="E28" t="n">
-        <v>595</v>
-      </c>
-      <c r="F28" t="n">
-        <v>663</v>
-      </c>
-      <c r="G28" t="n">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Week 27</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>45802</v>
-      </c>
-      <c r="C29" t="n">
-        <v>943</v>
-      </c>
-      <c r="D29" t="n">
-        <v>518</v>
-      </c>
-      <c r="E29" t="n">
-        <v>601</v>
-      </c>
-      <c r="F29" t="n">
-        <v>673</v>
-      </c>
-      <c r="G29" t="n">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Week 28</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="C30" t="n">
-        <v>961</v>
-      </c>
-      <c r="D30" t="n">
-        <v>501</v>
-      </c>
-      <c r="E30" t="n">
-        <v>580</v>
-      </c>
-      <c r="F30" t="n">
-        <v>648</v>
-      </c>
-      <c r="G30" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Week 29</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>45816</v>
-      </c>
-      <c r="C31" t="n">
-        <v>995</v>
-      </c>
-      <c r="D31" t="n">
-        <v>518</v>
-      </c>
-      <c r="E31" t="n">
-        <v>600</v>
-      </c>
-      <c r="F31" t="n">
-        <v>672</v>
-      </c>
-      <c r="G31" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Week 30</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>45823</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1017</v>
-      </c>
-      <c r="D32" t="n">
-        <v>520</v>
-      </c>
-      <c r="E32" t="n">
-        <v>601</v>
-      </c>
-      <c r="F32" t="n">
-        <v>669</v>
-      </c>
-      <c r="G32" t="n">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Week 31</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>45830</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1023</v>
-      </c>
-      <c r="D33" t="n">
-        <v>519</v>
-      </c>
-      <c r="E33" t="n">
-        <v>602</v>
-      </c>
-      <c r="F33" t="n">
-        <v>674</v>
-      </c>
-      <c r="G33" t="n">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Week 32</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>45837</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1032</v>
-      </c>
-      <c r="D34" t="n">
-        <v>510</v>
-      </c>
-      <c r="E34" t="n">
-        <v>590</v>
-      </c>
-      <c r="F34" t="n">
-        <v>659</v>
-      </c>
-      <c r="G34" t="n">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Week 33</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>45844</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1051</v>
-      </c>
-      <c r="D35" t="n">
-        <v>639</v>
-      </c>
-      <c r="E35" t="n">
-        <v>760</v>
-      </c>
-      <c r="F35" t="n">
-        <v>878</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Week 34</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>45851</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1061</v>
-      </c>
-      <c r="D36" t="n">
-        <v>645</v>
-      </c>
-      <c r="E36" t="n">
-        <v>771</v>
-      </c>
-      <c r="F36" t="n">
-        <v>899</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Week 35</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>45858</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1045</v>
-      </c>
-      <c r="D37" t="n">
-        <v>504</v>
-      </c>
-      <c r="E37" t="n">
-        <v>582</v>
-      </c>
-      <c r="F37" t="n">
-        <v>649</v>
-      </c>
-      <c r="G37" t="n">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Week 36</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>45865</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D38" t="n">
-        <v>501</v>
-      </c>
-      <c r="E38" t="n">
-        <v>579</v>
-      </c>
-      <c r="F38" t="n">
-        <v>648</v>
-      </c>
-      <c r="G38" t="n">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Week 37</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>45872</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1019</v>
-      </c>
-      <c r="D39" t="n">
-        <v>514</v>
-      </c>
-      <c r="E39" t="n">
-        <v>596</v>
-      </c>
-      <c r="F39" t="n">
-        <v>666</v>
-      </c>
-      <c r="G39" t="n">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Week 38</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>45879</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1052</v>
-      </c>
-      <c r="D40" t="n">
-        <v>505</v>
-      </c>
-      <c r="E40" t="n">
-        <v>589</v>
-      </c>
-      <c r="F40" t="n">
-        <v>663</v>
-      </c>
-      <c r="G40" t="n">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Week 39</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>45886</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1066</v>
-      </c>
-      <c r="D41" t="n">
-        <v>529</v>
-      </c>
-      <c r="E41" t="n">
-        <v>615</v>
-      </c>
-      <c r="F41" t="n">
-        <v>692</v>
-      </c>
-      <c r="G41" t="n">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Week 40</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>45893</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1013</v>
-      </c>
-      <c r="D42" t="n">
-        <v>505</v>
-      </c>
-      <c r="E42" t="n">
-        <v>589</v>
-      </c>
-      <c r="F42" t="n">
-        <v>663</v>
-      </c>
-      <c r="G42" t="n">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Week 41</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>45900</v>
-      </c>
-      <c r="C43" t="n">
-        <v>914</v>
-      </c>
-      <c r="D43" t="n">
-        <v>508</v>
-      </c>
-      <c r="E43" t="n">
-        <v>594</v>
-      </c>
-      <c r="F43" t="n">
-        <v>671</v>
-      </c>
-      <c r="G43" t="n">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Week 42</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>45907</v>
-      </c>
-      <c r="C44" t="n">
-        <v>854</v>
-      </c>
-      <c r="D44" t="n">
-        <v>485</v>
-      </c>
-      <c r="E44" t="n">
-        <v>563</v>
-      </c>
-      <c r="F44" t="n">
-        <v>632</v>
-      </c>
-      <c r="G44" t="n">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Week 43</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>45914</v>
-      </c>
-      <c r="C45" t="n">
-        <v>889</v>
-      </c>
-      <c r="D45" t="n">
-        <v>492</v>
-      </c>
-      <c r="E45" t="n">
-        <v>576</v>
-      </c>
-      <c r="F45" t="n">
-        <v>652</v>
-      </c>
-      <c r="G45" t="n">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Week 44</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>45921</v>
-      </c>
-      <c r="C46" t="n">
-        <v>977</v>
-      </c>
-      <c r="D46" t="n">
-        <v>488</v>
-      </c>
-      <c r="E46" t="n">
-        <v>571</v>
-      </c>
-      <c r="F46" t="n">
-        <v>645</v>
-      </c>
-      <c r="G46" t="n">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Week 45</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>45928</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1004</v>
-      </c>
-      <c r="D47" t="n">
-        <v>484</v>
-      </c>
-      <c r="E47" t="n">
-        <v>562</v>
-      </c>
-      <c r="F47" t="n">
-        <v>631</v>
-      </c>
-      <c r="G47" t="n">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Week 46</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>45935</v>
-      </c>
-      <c r="C48" t="n">
-        <v>906</v>
-      </c>
-      <c r="D48" t="n">
-        <v>464</v>
-      </c>
-      <c r="E48" t="n">
-        <v>538</v>
-      </c>
-      <c r="F48" t="n">
-        <v>603</v>
-      </c>
-      <c r="G48" t="n">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Week 47</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>45942</v>
-      </c>
-      <c r="C49" t="n">
-        <v>738</v>
-      </c>
-      <c r="D49" t="n">
-        <v>460</v>
-      </c>
-      <c r="E49" t="n">
-        <v>538</v>
-      </c>
-      <c r="F49" t="n">
-        <v>609</v>
-      </c>
-      <c r="G49" t="n">
-        <v>716</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -484,19 +484,19 @@
         <v>45613</v>
       </c>
       <c r="C2" t="n">
-        <v>712</v>
+        <v>235</v>
       </c>
       <c r="D2" t="n">
-        <v>913</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
-        <v>1016</v>
+        <v>168</v>
       </c>
       <c r="F2" t="n">
-        <v>1094</v>
+        <v>192</v>
       </c>
       <c r="G2" t="n">
-        <v>1208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         <v>45620</v>
       </c>
       <c r="C3" t="n">
-        <v>830</v>
+        <v>328</v>
       </c>
       <c r="D3" t="n">
-        <v>1160</v>
+        <v>316</v>
       </c>
       <c r="E3" t="n">
-        <v>1334</v>
+        <v>385</v>
       </c>
       <c r="F3" t="n">
-        <v>1481</v>
+        <v>497</v>
       </c>
       <c r="G3" t="n">
-        <v>1703</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
         <v>45627</v>
       </c>
       <c r="C4" t="n">
-        <v>991</v>
+        <v>315</v>
       </c>
       <c r="D4" t="n">
-        <v>969</v>
+        <v>316</v>
       </c>
       <c r="E4" t="n">
-        <v>1117</v>
+        <v>385</v>
       </c>
       <c r="F4" t="n">
-        <v>1242</v>
+        <v>497</v>
       </c>
       <c r="G4" t="n">
-        <v>1431</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5">
@@ -559,19 +559,19 @@
         <v>45634</v>
       </c>
       <c r="C5" t="n">
-        <v>1143</v>
+        <v>219</v>
       </c>
       <c r="D5" t="n">
-        <v>808</v>
+        <v>352</v>
       </c>
       <c r="E5" t="n">
-        <v>914</v>
+        <v>430</v>
       </c>
       <c r="F5" t="n">
-        <v>999</v>
+        <v>536</v>
       </c>
       <c r="G5" t="n">
-        <v>1124</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6">
@@ -584,19 +584,19 @@
         <v>45641</v>
       </c>
       <c r="C6" t="n">
-        <v>1209</v>
+        <v>123</v>
       </c>
       <c r="D6" t="n">
-        <v>819</v>
+        <v>164</v>
       </c>
       <c r="E6" t="n">
-        <v>933</v>
+        <v>197</v>
       </c>
       <c r="F6" t="n">
-        <v>1025</v>
+        <v>234</v>
       </c>
       <c r="G6" t="n">
-        <v>1163</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7">
@@ -609,19 +609,19 @@
         <v>45648</v>
       </c>
       <c r="C7" t="n">
-        <v>1163</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
-        <v>668</v>
+        <v>167</v>
       </c>
       <c r="E7" t="n">
-        <v>761</v>
+        <v>202</v>
       </c>
       <c r="F7" t="n">
-        <v>836</v>
+        <v>241</v>
       </c>
       <c r="G7" t="n">
-        <v>949</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8">
@@ -634,19 +634,19 @@
         <v>45655</v>
       </c>
       <c r="C8" t="n">
-        <v>1051</v>
+        <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>622</v>
+        <v>124</v>
       </c>
       <c r="E8" t="n">
-        <v>703</v>
+        <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>767</v>
+        <v>181</v>
       </c>
       <c r="G8" t="n">
-        <v>863</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>45662</v>
       </c>
       <c r="C9" t="n">
-        <v>937</v>
+        <v>106</v>
       </c>
       <c r="D9" t="n">
-        <v>645</v>
+        <v>124</v>
       </c>
       <c r="E9" t="n">
-        <v>729</v>
+        <v>150</v>
       </c>
       <c r="F9" t="n">
-        <v>796</v>
+        <v>180</v>
       </c>
       <c r="G9" t="n">
-        <v>895</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
@@ -684,19 +684,19 @@
         <v>45669</v>
       </c>
       <c r="C10" t="n">
-        <v>852</v>
+        <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>601</v>
+        <v>122</v>
       </c>
       <c r="E10" t="n">
-        <v>685</v>
+        <v>148</v>
       </c>
       <c r="F10" t="n">
-        <v>753</v>
+        <v>176</v>
       </c>
       <c r="G10" t="n">
-        <v>855</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
@@ -709,19 +709,19 @@
         <v>45676</v>
       </c>
       <c r="C11" t="n">
-        <v>789</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>586</v>
+        <v>124</v>
       </c>
       <c r="E11" t="n">
-        <v>664</v>
+        <v>151</v>
       </c>
       <c r="F11" t="n">
-        <v>726</v>
+        <v>180</v>
       </c>
       <c r="G11" t="n">
-        <v>819</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
@@ -734,19 +734,19 @@
         <v>45683</v>
       </c>
       <c r="C12" t="n">
-        <v>738</v>
+        <v>83</v>
       </c>
       <c r="D12" t="n">
-        <v>592</v>
+        <v>128</v>
       </c>
       <c r="E12" t="n">
-        <v>673</v>
+        <v>156</v>
       </c>
       <c r="F12" t="n">
-        <v>739</v>
+        <v>188</v>
       </c>
       <c r="G12" t="n">
-        <v>837</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13">
@@ -759,19 +759,19 @@
         <v>45690</v>
       </c>
       <c r="C13" t="n">
-        <v>713</v>
+        <v>97</v>
       </c>
       <c r="D13" t="n">
-        <v>582</v>
+        <v>132</v>
       </c>
       <c r="E13" t="n">
-        <v>665</v>
+        <v>161</v>
       </c>
       <c r="F13" t="n">
-        <v>735</v>
+        <v>194</v>
       </c>
       <c r="G13" t="n">
-        <v>839</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14">
@@ -784,19 +784,19 @@
         <v>45697</v>
       </c>
       <c r="C14" t="n">
-        <v>719</v>
+        <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>571</v>
+        <v>128</v>
       </c>
       <c r="E14" t="n">
-        <v>654</v>
+        <v>156</v>
       </c>
       <c r="F14" t="n">
-        <v>723</v>
+        <v>187</v>
       </c>
       <c r="G14" t="n">
-        <v>826</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15">
@@ -809,19 +809,19 @@
         <v>45704</v>
       </c>
       <c r="C15" t="n">
-        <v>738</v>
+        <v>97</v>
       </c>
       <c r="D15" t="n">
-        <v>551</v>
+        <v>126</v>
       </c>
       <c r="E15" t="n">
-        <v>633</v>
+        <v>153</v>
       </c>
       <c r="F15" t="n">
-        <v>701</v>
+        <v>185</v>
       </c>
       <c r="G15" t="n">
-        <v>804</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
@@ -834,19 +834,19 @@
         <v>45711</v>
       </c>
       <c r="C16" t="n">
-        <v>733</v>
+        <v>86</v>
       </c>
       <c r="D16" t="n">
-        <v>549</v>
+        <v>129</v>
       </c>
       <c r="E16" t="n">
-        <v>632</v>
+        <v>157</v>
       </c>
       <c r="F16" t="n">
-        <v>703</v>
+        <v>191</v>
       </c>
       <c r="G16" t="n">
-        <v>810</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17">
@@ -859,19 +859,19 @@
         <v>45718</v>
       </c>
       <c r="C17" t="n">
-        <v>697</v>
+        <v>88</v>
       </c>
       <c r="D17" t="n">
-        <v>555</v>
+        <v>129</v>
       </c>
       <c r="E17" t="n">
-        <v>637</v>
+        <v>157</v>
       </c>
       <c r="F17" t="n">
-        <v>706</v>
+        <v>190</v>
       </c>
       <c r="G17" t="n">
-        <v>809</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18">
@@ -884,19 +884,19 @@
         <v>45725</v>
       </c>
       <c r="C18" t="n">
-        <v>663</v>
+        <v>96</v>
       </c>
       <c r="D18" t="n">
-        <v>556</v>
+        <v>126</v>
       </c>
       <c r="E18" t="n">
-        <v>639</v>
+        <v>153</v>
       </c>
       <c r="F18" t="n">
-        <v>707</v>
+        <v>185</v>
       </c>
       <c r="G18" t="n">
-        <v>810</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
@@ -909,19 +909,19 @@
         <v>45732</v>
       </c>
       <c r="C19" t="n">
-        <v>669</v>
+        <v>95</v>
       </c>
       <c r="D19" t="n">
-        <v>563</v>
+        <v>124</v>
       </c>
       <c r="E19" t="n">
-        <v>647</v>
+        <v>150</v>
       </c>
       <c r="F19" t="n">
-        <v>718</v>
+        <v>180</v>
       </c>
       <c r="G19" t="n">
-        <v>824</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20">
@@ -934,19 +934,19 @@
         <v>45739</v>
       </c>
       <c r="C20" t="n">
-        <v>710</v>
+        <v>78</v>
       </c>
       <c r="D20" t="n">
-        <v>574</v>
+        <v>138</v>
       </c>
       <c r="E20" t="n">
-        <v>660</v>
+        <v>167</v>
       </c>
       <c r="F20" t="n">
-        <v>732</v>
+        <v>202</v>
       </c>
       <c r="G20" t="n">
-        <v>840</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21">
@@ -959,19 +959,19 @@
         <v>45746</v>
       </c>
       <c r="C21" t="n">
-        <v>745</v>
+        <v>60</v>
       </c>
       <c r="D21" t="n">
-        <v>543</v>
+        <v>123</v>
       </c>
       <c r="E21" t="n">
-        <v>625</v>
+        <v>150</v>
       </c>
       <c r="F21" t="n">
-        <v>695</v>
+        <v>183</v>
       </c>
       <c r="G21" t="n">
-        <v>801</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,20 +455,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>P90</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
@@ -484,18 +494,24 @@
         <v>45613</v>
       </c>
       <c r="C2" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D2" t="n">
+        <v>118</v>
+      </c>
+      <c r="E2" t="n">
+        <v>344</v>
+      </c>
+      <c r="F2" t="n">
         <v>142</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>168</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>192</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>228</v>
       </c>
     </row>
@@ -512,15 +528,21 @@
         <v>328</v>
       </c>
       <c r="D3" t="n">
+        <v>206</v>
+      </c>
+      <c r="E3" t="n">
+        <v>437</v>
+      </c>
+      <c r="F3" t="n">
         <v>316</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>385</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>497</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>685</v>
       </c>
     </row>
@@ -534,18 +556,24 @@
         <v>45627</v>
       </c>
       <c r="C4" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D4" t="n">
+        <v>213</v>
+      </c>
+      <c r="E4" t="n">
+        <v>427</v>
+      </c>
+      <c r="F4" t="n">
         <v>316</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>385</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>497</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>685</v>
       </c>
     </row>
@@ -559,18 +587,24 @@
         <v>45634</v>
       </c>
       <c r="C5" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D5" t="n">
+        <v>110</v>
+      </c>
+      <c r="E5" t="n">
+        <v>327</v>
+      </c>
+      <c r="F5" t="n">
         <v>352</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>430</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>536</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>709</v>
       </c>
     </row>
@@ -584,18 +618,24 @@
         <v>45641</v>
       </c>
       <c r="C6" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>242</v>
+      </c>
+      <c r="F6" t="n">
         <v>164</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>197</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>234</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>291</v>
       </c>
     </row>
@@ -609,18 +649,24 @@
         <v>45648</v>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E7" t="n">
+        <v>199</v>
+      </c>
+      <c r="F7" t="n">
         <v>167</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>202</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>241</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>303</v>
       </c>
     </row>
@@ -634,18 +680,24 @@
         <v>45655</v>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" t="n">
+        <v>-29</v>
+      </c>
+      <c r="E8" t="n">
+        <v>212</v>
+      </c>
+      <c r="F8" t="n">
         <v>124</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>181</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>229</v>
       </c>
     </row>
@@ -659,18 +711,24 @@
         <v>45662</v>
       </c>
       <c r="C9" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>214</v>
+      </c>
+      <c r="F9" t="n">
         <v>124</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>150</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>180</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>228</v>
       </c>
     </row>
@@ -684,18 +742,24 @@
         <v>45669</v>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" t="n">
+        <v>-19</v>
+      </c>
+      <c r="E10" t="n">
+        <v>208</v>
+      </c>
+      <c r="F10" t="n">
         <v>122</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>148</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>176</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>220</v>
       </c>
     </row>
@@ -712,15 +776,21 @@
         <v>82</v>
       </c>
       <c r="D11" t="n">
+        <v>-29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>194</v>
+      </c>
+      <c r="F11" t="n">
         <v>124</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>151</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>180</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>227</v>
       </c>
     </row>
@@ -734,18 +804,24 @@
         <v>45683</v>
       </c>
       <c r="C12" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
+        <v>-27</v>
+      </c>
+      <c r="E12" t="n">
+        <v>195</v>
+      </c>
+      <c r="F12" t="n">
         <v>128</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>156</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>188</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>238</v>
       </c>
     </row>
@@ -759,18 +835,24 @@
         <v>45690</v>
       </c>
       <c r="C13" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>199</v>
+      </c>
+      <c r="F13" t="n">
         <v>132</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>161</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>194</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>246</v>
       </c>
     </row>
@@ -787,15 +869,21 @@
         <v>104</v>
       </c>
       <c r="D14" t="n">
+        <v>-6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>214</v>
+      </c>
+      <c r="F14" t="n">
         <v>128</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>156</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>187</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>237</v>
       </c>
     </row>
@@ -809,18 +897,24 @@
         <v>45704</v>
       </c>
       <c r="C15" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="n">
+        <v>-16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>209</v>
+      </c>
+      <c r="F15" t="n">
         <v>126</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>153</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>185</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>235</v>
       </c>
     </row>
@@ -837,15 +931,21 @@
         <v>86</v>
       </c>
       <c r="D16" t="n">
+        <v>-35</v>
+      </c>
+      <c r="E16" t="n">
+        <v>197</v>
+      </c>
+      <c r="F16" t="n">
         <v>129</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>157</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>191</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>244</v>
       </c>
     </row>
@@ -859,18 +959,24 @@
         <v>45718</v>
       </c>
       <c r="C17" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>191</v>
+      </c>
+      <c r="F17" t="n">
         <v>129</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>157</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>190</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>243</v>
       </c>
     </row>
@@ -884,18 +990,24 @@
         <v>45725</v>
       </c>
       <c r="C18" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="n">
+        <v>-17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>206</v>
+      </c>
+      <c r="F18" t="n">
         <v>126</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>153</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>185</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>235</v>
       </c>
     </row>
@@ -909,18 +1021,24 @@
         <v>45732</v>
       </c>
       <c r="C19" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>205</v>
+      </c>
+      <c r="F19" t="n">
         <v>124</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>150</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>180</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>228</v>
       </c>
     </row>
@@ -934,18 +1052,24 @@
         <v>45739</v>
       </c>
       <c r="C20" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" t="n">
+        <v>-28</v>
+      </c>
+      <c r="E20" t="n">
+        <v>192</v>
+      </c>
+      <c r="F20" t="n">
         <v>138</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>167</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>202</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>257</v>
       </c>
     </row>
@@ -959,18 +1083,24 @@
         <v>45746</v>
       </c>
       <c r="C21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E21" t="n">
+        <v>169</v>
+      </c>
+      <c r="F21" t="n">
         <v>123</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>150</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>183</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>235</v>
       </c>
     </row>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,30 +455,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Amazon Mean Forecast</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>P90</t>
+          <t>Amazon P70 Forecast</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Amazon Mean Forecast</t>
+          <t>Amazon P80 Forecast</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
@@ -494,24 +484,18 @@
         <v>45613</v>
       </c>
       <c r="C2" t="n">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D2" t="n">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="F2" t="n">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="G2" t="n">
-        <v>168</v>
-      </c>
-      <c r="H2" t="n">
-        <v>192</v>
-      </c>
-      <c r="I2" t="n">
         <v>228</v>
       </c>
     </row>
@@ -525,24 +509,18 @@
         <v>45620</v>
       </c>
       <c r="C3" t="n">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="D3" t="n">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="E3" t="n">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="F3" t="n">
-        <v>316</v>
+        <v>497</v>
       </c>
       <c r="G3" t="n">
-        <v>385</v>
-      </c>
-      <c r="H3" t="n">
-        <v>497</v>
-      </c>
-      <c r="I3" t="n">
         <v>685</v>
       </c>
     </row>
@@ -556,24 +534,18 @@
         <v>45627</v>
       </c>
       <c r="C4" t="n">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="D4" t="n">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="E4" t="n">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="F4" t="n">
-        <v>316</v>
+        <v>497</v>
       </c>
       <c r="G4" t="n">
-        <v>385</v>
-      </c>
-      <c r="H4" t="n">
-        <v>497</v>
-      </c>
-      <c r="I4" t="n">
         <v>685</v>
       </c>
     </row>
@@ -587,24 +559,18 @@
         <v>45634</v>
       </c>
       <c r="C5" t="n">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>352</v>
       </c>
       <c r="E5" t="n">
-        <v>327</v>
+        <v>430</v>
       </c>
       <c r="F5" t="n">
-        <v>352</v>
+        <v>536</v>
       </c>
       <c r="G5" t="n">
-        <v>430</v>
-      </c>
-      <c r="H5" t="n">
-        <v>536</v>
-      </c>
-      <c r="I5" t="n">
         <v>709</v>
       </c>
     </row>
@@ -618,24 +584,18 @@
         <v>45641</v>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="E6" t="n">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="F6" t="n">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="G6" t="n">
-        <v>197</v>
-      </c>
-      <c r="H6" t="n">
-        <v>234</v>
-      </c>
-      <c r="I6" t="n">
         <v>291</v>
       </c>
     </row>
@@ -649,24 +609,18 @@
         <v>45648</v>
       </c>
       <c r="C7" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="D7" t="n">
-        <v>-22</v>
+        <v>167</v>
       </c>
       <c r="E7" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F7" t="n">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="G7" t="n">
-        <v>202</v>
-      </c>
-      <c r="H7" t="n">
-        <v>241</v>
-      </c>
-      <c r="I7" t="n">
         <v>303</v>
       </c>
     </row>
@@ -680,24 +634,18 @@
         <v>45655</v>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D8" t="n">
-        <v>-29</v>
+        <v>124</v>
       </c>
       <c r="E8" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="F8" t="n">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="G8" t="n">
-        <v>150</v>
-      </c>
-      <c r="H8" t="n">
-        <v>181</v>
-      </c>
-      <c r="I8" t="n">
         <v>229</v>
       </c>
     </row>
@@ -711,24 +659,18 @@
         <v>45662</v>
       </c>
       <c r="C9" t="n">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="D9" t="n">
-        <v>-13</v>
+        <v>124</v>
       </c>
       <c r="E9" t="n">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="F9" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="G9" t="n">
-        <v>150</v>
-      </c>
-      <c r="H9" t="n">
-        <v>180</v>
-      </c>
-      <c r="I9" t="n">
         <v>228</v>
       </c>
     </row>
@@ -742,24 +684,18 @@
         <v>45669</v>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>-19</v>
+        <v>122</v>
       </c>
       <c r="E10" t="n">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="F10" t="n">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="G10" t="n">
-        <v>148</v>
-      </c>
-      <c r="H10" t="n">
-        <v>176</v>
-      </c>
-      <c r="I10" t="n">
         <v>220</v>
       </c>
     </row>
@@ -773,24 +709,18 @@
         <v>45676</v>
       </c>
       <c r="C11" t="n">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="D11" t="n">
-        <v>-29</v>
+        <v>124</v>
       </c>
       <c r="E11" t="n">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="F11" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="G11" t="n">
-        <v>151</v>
-      </c>
-      <c r="H11" t="n">
-        <v>180</v>
-      </c>
-      <c r="I11" t="n">
         <v>227</v>
       </c>
     </row>
@@ -804,24 +734,18 @@
         <v>45683</v>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="D12" t="n">
-        <v>-27</v>
+        <v>128</v>
       </c>
       <c r="E12" t="n">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="F12" t="n">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="G12" t="n">
-        <v>156</v>
-      </c>
-      <c r="H12" t="n">
-        <v>188</v>
-      </c>
-      <c r="I12" t="n">
         <v>238</v>
       </c>
     </row>
@@ -835,24 +759,18 @@
         <v>45690</v>
       </c>
       <c r="C13" t="n">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="D13" t="n">
-        <v>-12</v>
+        <v>132</v>
       </c>
       <c r="E13" t="n">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="F13" t="n">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="G13" t="n">
-        <v>161</v>
-      </c>
-      <c r="H13" t="n">
-        <v>194</v>
-      </c>
-      <c r="I13" t="n">
         <v>246</v>
       </c>
     </row>
@@ -866,24 +784,18 @@
         <v>45697</v>
       </c>
       <c r="C14" t="n">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="D14" t="n">
-        <v>-6</v>
+        <v>128</v>
       </c>
       <c r="E14" t="n">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="F14" t="n">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="G14" t="n">
-        <v>156</v>
-      </c>
-      <c r="H14" t="n">
-        <v>187</v>
-      </c>
-      <c r="I14" t="n">
         <v>237</v>
       </c>
     </row>
@@ -897,24 +809,18 @@
         <v>45704</v>
       </c>
       <c r="C15" t="n">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="D15" t="n">
-        <v>-16</v>
+        <v>126</v>
       </c>
       <c r="E15" t="n">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="F15" t="n">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="G15" t="n">
-        <v>153</v>
-      </c>
-      <c r="H15" t="n">
-        <v>185</v>
-      </c>
-      <c r="I15" t="n">
         <v>235</v>
       </c>
     </row>
@@ -928,24 +834,18 @@
         <v>45711</v>
       </c>
       <c r="C16" t="n">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D16" t="n">
-        <v>-35</v>
+        <v>129</v>
       </c>
       <c r="E16" t="n">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="F16" t="n">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G16" t="n">
-        <v>157</v>
-      </c>
-      <c r="H16" t="n">
-        <v>191</v>
-      </c>
-      <c r="I16" t="n">
         <v>244</v>
       </c>
     </row>
@@ -959,24 +859,18 @@
         <v>45718</v>
       </c>
       <c r="C17" t="n">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="D17" t="n">
-        <v>-25</v>
+        <v>129</v>
       </c>
       <c r="E17" t="n">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F17" t="n">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="G17" t="n">
-        <v>157</v>
-      </c>
-      <c r="H17" t="n">
-        <v>190</v>
-      </c>
-      <c r="I17" t="n">
         <v>243</v>
       </c>
     </row>
@@ -990,24 +884,18 @@
         <v>45725</v>
       </c>
       <c r="C18" t="n">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="D18" t="n">
-        <v>-17</v>
+        <v>126</v>
       </c>
       <c r="E18" t="n">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="F18" t="n">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="G18" t="n">
-        <v>153</v>
-      </c>
-      <c r="H18" t="n">
-        <v>185</v>
-      </c>
-      <c r="I18" t="n">
         <v>235</v>
       </c>
     </row>
@@ -1021,24 +909,18 @@
         <v>45732</v>
       </c>
       <c r="C19" t="n">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="D19" t="n">
-        <v>-14</v>
+        <v>124</v>
       </c>
       <c r="E19" t="n">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="F19" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="G19" t="n">
-        <v>150</v>
-      </c>
-      <c r="H19" t="n">
-        <v>180</v>
-      </c>
-      <c r="I19" t="n">
         <v>228</v>
       </c>
     </row>
@@ -1052,24 +934,18 @@
         <v>45739</v>
       </c>
       <c r="C20" t="n">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D20" t="n">
-        <v>-28</v>
+        <v>138</v>
       </c>
       <c r="E20" t="n">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F20" t="n">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="G20" t="n">
-        <v>167</v>
-      </c>
-      <c r="H20" t="n">
-        <v>202</v>
-      </c>
-      <c r="I20" t="n">
         <v>257</v>
       </c>
     </row>
@@ -1083,24 +959,18 @@
         <v>45746</v>
       </c>
       <c r="C21" t="n">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="D21" t="n">
-        <v>-49</v>
+        <v>123</v>
       </c>
       <c r="E21" t="n">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F21" t="n">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="G21" t="n">
-        <v>150</v>
-      </c>
-      <c r="H21" t="n">
-        <v>183</v>
-      </c>
-      <c r="I21" t="n">
         <v>235</v>
       </c>
     </row>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -484,7 +484,7 @@
         <v>45613</v>
       </c>
       <c r="C2" t="n">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D2" t="n">
         <v>142</v>
@@ -509,7 +509,7 @@
         <v>45620</v>
       </c>
       <c r="C3" t="n">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D3" t="n">
         <v>316</v>
@@ -534,7 +534,7 @@
         <v>45627</v>
       </c>
       <c r="C4" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D4" t="n">
         <v>316</v>
@@ -559,7 +559,7 @@
         <v>45634</v>
       </c>
       <c r="C5" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D5" t="n">
         <v>352</v>
@@ -584,7 +584,7 @@
         <v>45641</v>
       </c>
       <c r="C6" t="n">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D6" t="n">
         <v>164</v>
@@ -609,7 +609,7 @@
         <v>45648</v>
       </c>
       <c r="C7" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D7" t="n">
         <v>167</v>
@@ -634,7 +634,7 @@
         <v>45655</v>
       </c>
       <c r="C8" t="n">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D8" t="n">
         <v>124</v>
@@ -659,7 +659,7 @@
         <v>45662</v>
       </c>
       <c r="C9" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D9" t="n">
         <v>124</v>
@@ -684,7 +684,7 @@
         <v>45669</v>
       </c>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
         <v>122</v>
@@ -709,7 +709,7 @@
         <v>45676</v>
       </c>
       <c r="C11" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D11" t="n">
         <v>124</v>
@@ -734,7 +734,7 @@
         <v>45683</v>
       </c>
       <c r="C12" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D12" t="n">
         <v>128</v>
@@ -759,7 +759,7 @@
         <v>45690</v>
       </c>
       <c r="C13" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D13" t="n">
         <v>132</v>
@@ -784,7 +784,7 @@
         <v>45697</v>
       </c>
       <c r="C14" t="n">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D14" t="n">
         <v>128</v>
@@ -809,7 +809,7 @@
         <v>45704</v>
       </c>
       <c r="C15" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D15" t="n">
         <v>126</v>
@@ -834,7 +834,7 @@
         <v>45711</v>
       </c>
       <c r="C16" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D16" t="n">
         <v>129</v>
@@ -859,7 +859,7 @@
         <v>45718</v>
       </c>
       <c r="C17" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D17" t="n">
         <v>129</v>
@@ -884,7 +884,7 @@
         <v>45725</v>
       </c>
       <c r="C18" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D18" t="n">
         <v>126</v>
@@ -909,7 +909,7 @@
         <v>45732</v>
       </c>
       <c r="C19" t="n">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D19" t="n">
         <v>124</v>
@@ -934,7 +934,7 @@
         <v>45739</v>
       </c>
       <c r="C20" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D20" t="n">
         <v>138</v>
@@ -959,7 +959,7 @@
         <v>45746</v>
       </c>
       <c r="C21" t="n">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D21" t="n">
         <v>123</v>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -474,7 +474,7 @@
         <v>45613</v>
       </c>
       <c r="B2" t="n">
-        <v>241.5964012229138</v>
+        <v>247.0914315583062</v>
       </c>
       <c r="C2" t="n">
         <v>142</v>
@@ -494,7 +494,7 @@
         <v>45620</v>
       </c>
       <c r="B3" t="n">
-        <v>337.8748023811768</v>
+        <v>346.2651090610973</v>
       </c>
       <c r="C3" t="n">
         <v>316</v>
@@ -514,7 +514,7 @@
         <v>45627</v>
       </c>
       <c r="B4" t="n">
-        <v>324.918450683769</v>
+        <v>333.45694053909</v>
       </c>
       <c r="C4" t="n">
         <v>316</v>
@@ -534,7 +534,7 @@
         <v>45634</v>
       </c>
       <c r="B5" t="n">
-        <v>226.2810160310683</v>
+        <v>232.3238493699076</v>
       </c>
       <c r="C5" t="n">
         <v>352</v>
@@ -554,7 +554,7 @@
         <v>45641</v>
       </c>
       <c r="B6" t="n">
-        <v>126.6726320434068</v>
+        <v>129.788887525641</v>
       </c>
       <c r="C6" t="n">
         <v>164</v>
@@ -574,7 +574,7 @@
         <v>45648</v>
       </c>
       <c r="B7" t="n">
-        <v>86.63609679476096</v>
+        <v>88.53102414415022</v>
       </c>
       <c r="C7" t="n">
         <v>167</v>
@@ -594,7 +594,7 @@
         <v>45655</v>
       </c>
       <c r="B8" t="n">
-        <v>96.92970018588463</v>
+        <v>99.48039767132039</v>
       </c>
       <c r="C8" t="n">
         <v>124</v>
@@ -614,7 +614,7 @@
         <v>45662</v>
       </c>
       <c r="B9" t="n">
-        <v>110.4250994772874</v>
+        <v>114.0385627444688</v>
       </c>
       <c r="C9" t="n">
         <v>124</v>
@@ -634,7 +634,7 @@
         <v>45669</v>
       </c>
       <c r="B10" t="n">
-        <v>101.8564499811311</v>
+        <v>105.7138291316456</v>
       </c>
       <c r="C10" t="n">
         <v>122</v>
@@ -654,7 +654,7 @@
         <v>45676</v>
       </c>
       <c r="B11" t="n">
-        <v>86.23281528673469</v>
+        <v>89.71362641987352</v>
       </c>
       <c r="C11" t="n">
         <v>124</v>
@@ -674,7 +674,7 @@
         <v>45683</v>
       </c>
       <c r="B12" t="n">
-        <v>86.66932632932316</v>
+        <v>90.09407186796832</v>
       </c>
       <c r="C12" t="n">
         <v>128</v>
@@ -694,7 +694,7 @@
         <v>45690</v>
       </c>
       <c r="B13" t="n">
-        <v>101.3358609869773</v>
+        <v>105.3221230874238</v>
       </c>
       <c r="C13" t="n">
         <v>132</v>
@@ -714,7 +714,7 @@
         <v>45697</v>
       </c>
       <c r="B14" t="n">
-        <v>109.594886691577</v>
+        <v>114.1290999204946</v>
       </c>
       <c r="C14" t="n">
         <v>128</v>
@@ -734,7 +734,7 @@
         <v>45704</v>
       </c>
       <c r="B15" t="n">
-        <v>101.9681257157369</v>
+        <v>106.4738821795387</v>
       </c>
       <c r="C15" t="n">
         <v>126</v>
@@ -754,7 +754,7 @@
         <v>45711</v>
       </c>
       <c r="B16" t="n">
-        <v>91.28666805076679</v>
+        <v>95.48359787143882</v>
       </c>
       <c r="C16" t="n">
         <v>129</v>
@@ -774,7 +774,7 @@
         <v>45718</v>
       </c>
       <c r="B17" t="n">
-        <v>92.58237590872344</v>
+        <v>96.8587208708943</v>
       </c>
       <c r="C17" t="n">
         <v>129</v>
@@ -794,7 +794,7 @@
         <v>45725</v>
       </c>
       <c r="B18" t="n">
-        <v>101.5443017074758</v>
+        <v>106.3044646373048</v>
       </c>
       <c r="C18" t="n">
         <v>126</v>
@@ -814,7 +814,7 @@
         <v>45732</v>
       </c>
       <c r="B19" t="n">
-        <v>100.6142773784947</v>
+        <v>105.5340074946215</v>
       </c>
       <c r="C19" t="n">
         <v>124</v>
@@ -834,7 +834,7 @@
         <v>45739</v>
       </c>
       <c r="B20" t="n">
-        <v>83.25981662499447</v>
+        <v>87.55416004094531</v>
       </c>
       <c r="C20" t="n">
         <v>138</v>
@@ -854,7 +854,7 @@
         <v>45746</v>
       </c>
       <c r="B21" t="n">
-        <v>63.52368303136657</v>
+        <v>66.95541653985663</v>
       </c>
       <c r="C21" t="n">
         <v>123</v>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -474,7 +474,7 @@
         <v>45613</v>
       </c>
       <c r="B2" t="n">
-        <v>247.0914315583062</v>
+        <v>268.3556199139661</v>
       </c>
       <c r="C2" t="n">
         <v>142</v>
@@ -494,7 +494,7 @@
         <v>45620</v>
       </c>
       <c r="B3" t="n">
-        <v>346.2651090610973</v>
+        <v>378.786284211263</v>
       </c>
       <c r="C3" t="n">
         <v>316</v>
@@ -514,7 +514,7 @@
         <v>45627</v>
       </c>
       <c r="B4" t="n">
-        <v>333.45694053909</v>
+        <v>366.7456816279245</v>
       </c>
       <c r="C4" t="n">
         <v>316</v>
@@ -534,7 +534,7 @@
         <v>45634</v>
       </c>
       <c r="B5" t="n">
-        <v>232.3238493699076</v>
+        <v>255.9884580722891</v>
       </c>
       <c r="C5" t="n">
         <v>352</v>
@@ -554,7 +554,7 @@
         <v>45641</v>
       </c>
       <c r="B6" t="n">
-        <v>129.788887525641</v>
+        <v>141.7989835370184</v>
       </c>
       <c r="C6" t="n">
         <v>164</v>
@@ -574,7 +574,7 @@
         <v>45648</v>
       </c>
       <c r="B7" t="n">
-        <v>88.53102414415022</v>
+        <v>95.30273024796819</v>
       </c>
       <c r="C7" t="n">
         <v>167</v>
@@ -594,7 +594,7 @@
         <v>45655</v>
       </c>
       <c r="B8" t="n">
-        <v>99.48039767132039</v>
+        <v>108.5143021299603</v>
       </c>
       <c r="C8" t="n">
         <v>124</v>
@@ -614,7 +614,7 @@
         <v>45662</v>
       </c>
       <c r="B9" t="n">
-        <v>114.0385627444688</v>
+        <v>127.3809719122617</v>
       </c>
       <c r="C9" t="n">
         <v>124</v>
@@ -634,7 +634,7 @@
         <v>45669</v>
       </c>
       <c r="B10" t="n">
-        <v>105.7138291316456</v>
+        <v>120.4817296633747</v>
       </c>
       <c r="C10" t="n">
         <v>122</v>
@@ -654,7 +654,7 @@
         <v>45676</v>
       </c>
       <c r="B11" t="n">
-        <v>89.71362641987352</v>
+        <v>103.3892853978383</v>
       </c>
       <c r="C11" t="n">
         <v>124</v>
@@ -674,7 +674,7 @@
         <v>45683</v>
       </c>
       <c r="B12" t="n">
-        <v>90.09407186796832</v>
+        <v>103.5804928101471</v>
       </c>
       <c r="C12" t="n">
         <v>128</v>
@@ -694,7 +694,7 @@
         <v>45690</v>
       </c>
       <c r="B13" t="n">
-        <v>105.3221230874238</v>
+        <v>120.7937647520927</v>
       </c>
       <c r="C13" t="n">
         <v>132</v>
@@ -714,7 +714,7 @@
         <v>45697</v>
       </c>
       <c r="B14" t="n">
-        <v>114.1290999204946</v>
+        <v>131.5796321821239</v>
       </c>
       <c r="C14" t="n">
         <v>128</v>
@@ -734,7 +734,7 @@
         <v>45704</v>
       </c>
       <c r="B15" t="n">
-        <v>106.4738821795387</v>
+        <v>123.8342819093737</v>
       </c>
       <c r="C15" t="n">
         <v>126</v>
@@ -754,7 +754,7 @@
         <v>45711</v>
       </c>
       <c r="B16" t="n">
-        <v>95.48359787143882</v>
+        <v>111.7457297321719</v>
       </c>
       <c r="C16" t="n">
         <v>129</v>
@@ -774,7 +774,7 @@
         <v>45718</v>
       </c>
       <c r="B17" t="n">
-        <v>96.8587208708943</v>
+        <v>113.4887878140791</v>
       </c>
       <c r="C17" t="n">
         <v>129</v>
@@ -794,7 +794,7 @@
         <v>45725</v>
       </c>
       <c r="B18" t="n">
-        <v>106.3044646373048</v>
+        <v>124.829003956513</v>
       </c>
       <c r="C18" t="n">
         <v>126</v>
@@ -814,7 +814,7 @@
         <v>45732</v>
       </c>
       <c r="B19" t="n">
-        <v>105.5340074946215</v>
+        <v>124.7185469258241</v>
       </c>
       <c r="C19" t="n">
         <v>124</v>
@@ -834,7 +834,7 @@
         <v>45739</v>
       </c>
       <c r="B20" t="n">
-        <v>87.55416004094531</v>
+        <v>104.3770853903115</v>
       </c>
       <c r="C20" t="n">
         <v>138</v>
@@ -854,7 +854,7 @@
         <v>45746</v>
       </c>
       <c r="B21" t="n">
-        <v>66.95541653985663</v>
+        <v>80.43998166937178</v>
       </c>
       <c r="C21" t="n">
         <v>123</v>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,20 +17,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +45,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,39 +426,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>ds</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Prophet Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="B2" t="n">
@@ -490,7 +478,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>45620</v>
       </c>
       <c r="B3" t="n">
@@ -510,7 +498,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B4" t="n">
@@ -530,7 +518,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>45634</v>
       </c>
       <c r="B5" t="n">
@@ -550,7 +538,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>45641</v>
       </c>
       <c r="B6" t="n">
@@ -570,7 +558,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>45648</v>
       </c>
       <c r="B7" t="n">
@@ -590,7 +578,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>45655</v>
       </c>
       <c r="B8" t="n">
@@ -610,7 +598,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>45662</v>
       </c>
       <c r="B9" t="n">
@@ -630,7 +618,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>45669</v>
       </c>
       <c r="B10" t="n">
@@ -650,7 +638,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>45676</v>
       </c>
       <c r="B11" t="n">
@@ -670,7 +658,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>45683</v>
       </c>
       <c r="B12" t="n">
@@ -690,7 +678,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>45690</v>
       </c>
       <c r="B13" t="n">
@@ -710,7 +698,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>45697</v>
       </c>
       <c r="B14" t="n">
@@ -730,7 +718,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>45704</v>
       </c>
       <c r="B15" t="n">
@@ -750,7 +738,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>45711</v>
       </c>
       <c r="B16" t="n">
@@ -770,7 +758,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>45718</v>
       </c>
       <c r="B17" t="n">
@@ -790,7 +778,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>45725</v>
       </c>
       <c r="B18" t="n">
@@ -810,7 +798,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>45732</v>
       </c>
       <c r="B19" t="n">
@@ -830,7 +818,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>45739</v>
       </c>
       <c r="B20" t="n">
@@ -850,7 +838,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>45746</v>
       </c>
       <c r="B21" t="n">
@@ -867,6 +855,205 @@
       </c>
       <c r="F21" t="n">
         <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Historical Range</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-01-01 to 2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Min Sales</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Max Sales</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean Sales</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Median Sales</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Std Dev Sales</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total Historical Sales</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14665 units</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total Forecast (16 Weeks)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2672</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Total Forecast (8 Weeks)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1743</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total Forecast (4 Weeks)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Max Forecast</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Max Forecast Week</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Min Forecast</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Min Forecast Week</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -459,402 +459,402 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45613</v>
+        <v>45620</v>
       </c>
       <c r="B2" t="n">
-        <v>268.3556199139661</v>
+        <v>136.9818513185937</v>
       </c>
       <c r="C2" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D2" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E2" t="n">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F2" t="n">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45620</v>
+        <v>45627</v>
       </c>
       <c r="B3" t="n">
-        <v>378.786284211263</v>
+        <v>168.4416160175068</v>
       </c>
       <c r="C3" t="n">
-        <v>316</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>385</v>
+        <v>115</v>
       </c>
       <c r="E3" t="n">
-        <v>497</v>
+        <v>131</v>
       </c>
       <c r="F3" t="n">
-        <v>685</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45627</v>
+        <v>45634</v>
       </c>
       <c r="B4" t="n">
-        <v>366.7456816279245</v>
+        <v>169.914628026526</v>
       </c>
       <c r="C4" t="n">
-        <v>316</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>385</v>
+        <v>107</v>
       </c>
       <c r="E4" t="n">
-        <v>497</v>
+        <v>123</v>
       </c>
       <c r="F4" t="n">
-        <v>685</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45634</v>
+        <v>45641</v>
       </c>
       <c r="B5" t="n">
-        <v>255.9884580722891</v>
+        <v>142.2947777098215</v>
       </c>
       <c r="C5" t="n">
-        <v>352</v>
+        <v>107</v>
       </c>
       <c r="D5" t="n">
-        <v>430</v>
+        <v>129</v>
       </c>
       <c r="E5" t="n">
-        <v>536</v>
+        <v>151</v>
       </c>
       <c r="F5" t="n">
-        <v>709</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45641</v>
+        <v>45648</v>
       </c>
       <c r="B6" t="n">
-        <v>141.7989835370184</v>
+        <v>109.4664126188083</v>
       </c>
       <c r="C6" t="n">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D6" t="n">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="E6" t="n">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="F6" t="n">
-        <v>291</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45648</v>
+        <v>45655</v>
       </c>
       <c r="B7" t="n">
-        <v>95.30273024796819</v>
+        <v>96.11049351104116</v>
       </c>
       <c r="C7" t="n">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="D7" t="n">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="E7" t="n">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="F7" t="n">
-        <v>303</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45655</v>
+        <v>45662</v>
       </c>
       <c r="B8" t="n">
-        <v>108.5143021299603</v>
+        <v>105.7529104100227</v>
       </c>
       <c r="C8" t="n">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="E8" t="n">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="F8" t="n">
-        <v>229</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45662</v>
+        <v>45669</v>
       </c>
       <c r="B9" t="n">
-        <v>127.3809719122617</v>
+        <v>121.0872696606129</v>
       </c>
       <c r="C9" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>228</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45669</v>
+        <v>45676</v>
       </c>
       <c r="B10" t="n">
-        <v>120.4817296633747</v>
+        <v>123.8774592370909</v>
       </c>
       <c r="C10" t="n">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="D10" t="n">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="F10" t="n">
-        <v>220</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45676</v>
+        <v>45683</v>
       </c>
       <c r="B11" t="n">
-        <v>103.3892853978383</v>
+        <v>111.9007166143139</v>
       </c>
       <c r="C11" t="n">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E11" t="n">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="F11" t="n">
-        <v>227</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45683</v>
+        <v>45690</v>
       </c>
       <c r="B12" t="n">
-        <v>103.5804928101471</v>
+        <v>96.95746653853925</v>
       </c>
       <c r="C12" t="n">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="D12" t="n">
+        <v>107</v>
+      </c>
+      <c r="E12" t="n">
+        <v>126</v>
+      </c>
+      <c r="F12" t="n">
         <v>156</v>
-      </c>
-      <c r="E12" t="n">
-        <v>188</v>
-      </c>
-      <c r="F12" t="n">
-        <v>238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45690</v>
+        <v>45697</v>
       </c>
       <c r="B13" t="n">
-        <v>120.7937647520927</v>
+        <v>90.46160616357912</v>
       </c>
       <c r="C13" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D13" t="n">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="E13" t="n">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="F13" t="n">
-        <v>246</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45697</v>
+        <v>45704</v>
       </c>
       <c r="B14" t="n">
-        <v>131.5796321821239</v>
+        <v>94.18715344996073</v>
       </c>
       <c r="C14" t="n">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D14" t="n">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="E14" t="n">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="F14" t="n">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45704</v>
+        <v>45711</v>
       </c>
       <c r="B15" t="n">
-        <v>123.8342819093737</v>
+        <v>103.1471170533232</v>
       </c>
       <c r="C15" t="n">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="D15" t="n">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="E15" t="n">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="F15" t="n">
-        <v>235</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45711</v>
+        <v>45718</v>
       </c>
       <c r="B16" t="n">
-        <v>111.7457297321719</v>
+        <v>112.139807459956</v>
       </c>
       <c r="C16" t="n">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="E16" t="n">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="F16" t="n">
-        <v>244</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45718</v>
+        <v>45725</v>
       </c>
       <c r="B17" t="n">
-        <v>113.4887878140791</v>
+        <v>116.8763710020518</v>
       </c>
       <c r="C17" t="n">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="E17" t="n">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="F17" t="n">
-        <v>243</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45725</v>
+        <v>45732</v>
       </c>
       <c r="B18" t="n">
-        <v>124.829003956513</v>
+        <v>112.2331903575082</v>
       </c>
       <c r="C18" t="n">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D18" t="n">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="E18" t="n">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="F18" t="n">
-        <v>235</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45732</v>
+        <v>45739</v>
       </c>
       <c r="B19" t="n">
-        <v>124.7185469258241</v>
+        <v>95.36470947862614</v>
       </c>
       <c r="C19" t="n">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D19" t="n">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E19" t="n">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="F19" t="n">
-        <v>228</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45739</v>
+        <v>45746</v>
       </c>
       <c r="B20" t="n">
-        <v>104.3770853903115</v>
+        <v>72.3859039842106</v>
       </c>
       <c r="C20" t="n">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="D20" t="n">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="E20" t="n">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="F20" t="n">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45746</v>
+        <v>45753</v>
       </c>
       <c r="B21" t="n">
-        <v>80.43998166937178</v>
+        <v>57.96628639897691</v>
       </c>
       <c r="C21" t="n">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="D21" t="n">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="E21" t="n">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="F21" t="n">
-        <v>235</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +896,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-11-10</t>
+          <t>2023-01-01 to 2024-11-17</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>375</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14665 units</t>
+          <t>13493 units</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2672</t>
+          <t>1900</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>1050</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>618</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>

--- a/forecast_comparison_summary.xlsx
+++ b/forecast_comparison_summary.xlsx
@@ -462,19 +462,19 @@
         <v>45620</v>
       </c>
       <c r="B2" t="n">
-        <v>136.9818513185937</v>
+        <v>468.1561649076668</v>
       </c>
       <c r="C2" t="n">
-        <v>146</v>
+        <v>701</v>
       </c>
       <c r="D2" t="n">
-        <v>174</v>
+        <v>857</v>
       </c>
       <c r="E2" t="n">
-        <v>201</v>
+        <v>1079</v>
       </c>
       <c r="F2" t="n">
-        <v>242</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
         <v>45627</v>
       </c>
       <c r="B3" t="n">
-        <v>168.4416160175068</v>
+        <v>532.1156751534114</v>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>321</v>
       </c>
       <c r="E3" t="n">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="F3" t="n">
-        <v>155</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4">
@@ -502,19 +502,19 @@
         <v>45634</v>
       </c>
       <c r="B4" t="n">
-        <v>169.914628026526</v>
+        <v>457.7327641261022</v>
       </c>
       <c r="C4" t="n">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="D4" t="n">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="E4" t="n">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="F4" t="n">
-        <v>147</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
@@ -522,19 +522,19 @@
         <v>45641</v>
       </c>
       <c r="B5" t="n">
-        <v>142.2947777098215</v>
+        <v>317.5540424429</v>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="D5" t="n">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="E5" t="n">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="F5" t="n">
-        <v>186</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6">
@@ -542,19 +542,19 @@
         <v>45648</v>
       </c>
       <c r="B6" t="n">
-        <v>109.4664126188083</v>
+        <v>215.533517665481</v>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D6" t="n">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="F6" t="n">
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7">
@@ -562,19 +562,19 @@
         <v>45655</v>
       </c>
       <c r="B7" t="n">
-        <v>96.11049351104116</v>
+        <v>195.3814903846867</v>
       </c>
       <c r="C7" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E7" t="n">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F7" t="n">
-        <v>138</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
@@ -582,19 +582,19 @@
         <v>45662</v>
       </c>
       <c r="B8" t="n">
-        <v>105.7529104100227</v>
+        <v>221.8929296655804</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D8" t="n">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E8" t="n">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="F8" t="n">
-        <v>141</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -602,19 +602,19 @@
         <v>45669</v>
       </c>
       <c r="B9" t="n">
-        <v>121.0872696606129</v>
+        <v>240.1185641152562</v>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E9" t="n">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F9" t="n">
-        <v>136</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -622,19 +622,19 @@
         <v>45676</v>
       </c>
       <c r="B10" t="n">
-        <v>123.8774592370909</v>
+        <v>235.6136802083513</v>
       </c>
       <c r="C10" t="n">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="E10" t="n">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F10" t="n">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11">
@@ -642,19 +642,19 @@
         <v>45683</v>
       </c>
       <c r="B11" t="n">
-        <v>111.9007166143139</v>
+        <v>232.2287374602311</v>
       </c>
       <c r="C11" t="n">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D11" t="n">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E11" t="n">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="F11" t="n">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12">
@@ -662,19 +662,19 @@
         <v>45690</v>
       </c>
       <c r="B12" t="n">
-        <v>96.95746653853925</v>
+        <v>245.9224817702768</v>
       </c>
       <c r="C12" t="n">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="E12" t="n">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="F12" t="n">
-        <v>156</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13">
@@ -682,19 +682,19 @@
         <v>45697</v>
       </c>
       <c r="B13" t="n">
-        <v>90.46160616357912</v>
+        <v>260.7051362051131</v>
       </c>
       <c r="C13" t="n">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D13" t="n">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E13" t="n">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="F13" t="n">
-        <v>155</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14">
@@ -702,19 +702,19 @@
         <v>45704</v>
       </c>
       <c r="B14" t="n">
-        <v>94.18715344996073</v>
+        <v>253.9997037880444</v>
       </c>
       <c r="C14" t="n">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="D14" t="n">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E14" t="n">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="F14" t="n">
-        <v>144</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
@@ -722,19 +722,19 @@
         <v>45711</v>
       </c>
       <c r="B15" t="n">
-        <v>103.1471170533232</v>
+        <v>230.8431160633121</v>
       </c>
       <c r="C15" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D15" t="n">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="E15" t="n">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="F15" t="n">
-        <v>144</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
@@ -742,19 +742,19 @@
         <v>45718</v>
       </c>
       <c r="B16" t="n">
-        <v>112.139807459956</v>
+        <v>217.6013250812106</v>
       </c>
       <c r="C16" t="n">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="D16" t="n">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E16" t="n">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="F16" t="n">
-        <v>148</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17">
@@ -762,19 +762,19 @@
         <v>45725</v>
       </c>
       <c r="B17" t="n">
-        <v>116.8763710020518</v>
+        <v>223.3925503230307</v>
       </c>
       <c r="C17" t="n">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="D17" t="n">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="E17" t="n">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="F17" t="n">
-        <v>146</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -782,19 +782,19 @@
         <v>45732</v>
       </c>
       <c r="B18" t="n">
-        <v>112.2331903575082</v>
+        <v>222.8242736541926</v>
       </c>
       <c r="C18" t="n">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="D18" t="n">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="E18" t="n">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="F18" t="n">
-        <v>137</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19">
@@ -802,19 +802,19 @@
         <v>45739</v>
       </c>
       <c r="B19" t="n">
-        <v>95.36470947862614</v>
+        <v>186.8141746494535</v>
       </c>
       <c r="C19" t="n">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="D19" t="n">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="E19" t="n">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="F19" t="n">
-        <v>132</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
@@ -822,19 +822,19 @@
         <v>45746</v>
       </c>
       <c r="B20" t="n">
-        <v>72.3859039842106</v>
+        <v>124.3343996311871</v>
       </c>
       <c r="C20" t="n">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D20" t="n">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="E20" t="n">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="F20" t="n">
-        <v>144</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21">
@@ -842,19 +842,19 @@
         <v>45753</v>
       </c>
       <c r="B21" t="n">
-        <v>57.96628639897691</v>
+        <v>80.51744823513057</v>
       </c>
       <c r="C21" t="n">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="D21" t="n">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="E21" t="n">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="F21" t="n">
-        <v>134</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +908,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>666</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>188</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13493 units</t>
+          <t>18802 units</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>4549</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>2648</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>1776</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>532</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>81</t>
         </is>
       </c>
     </row>
